--- a/data/nzd0299/nzd0299.xlsx
+++ b/data/nzd0299/nzd0299.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X282"/>
+  <dimension ref="A1:X285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19394,6 +19394,238 @@
         </is>
       </c>
     </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:57+00:00</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>347.8333333333333</v>
+      </c>
+      <c r="C283" t="n">
+        <v>343.8</v>
+      </c>
+      <c r="D283" t="n">
+        <v>342.5928571428572</v>
+      </c>
+      <c r="E283" t="n">
+        <v>342.14</v>
+      </c>
+      <c r="F283" t="n">
+        <v>338.4433333333333</v>
+      </c>
+      <c r="G283" t="n">
+        <v>333.14</v>
+      </c>
+      <c r="H283" t="n">
+        <v>334.7045454545454</v>
+      </c>
+      <c r="I283" t="n">
+        <v>334.3845454545454</v>
+      </c>
+      <c r="J283" t="n">
+        <v>331.8833333333333</v>
+      </c>
+      <c r="K283" t="n">
+        <v>334.27</v>
+      </c>
+      <c r="L283" t="n">
+        <v>338.8045454545455</v>
+      </c>
+      <c r="M283" t="n">
+        <v>334.3514285714285</v>
+      </c>
+      <c r="N283" t="n">
+        <v>336.5533333333333</v>
+      </c>
+      <c r="O283" t="n">
+        <v>343.39</v>
+      </c>
+      <c r="P283" t="n">
+        <v>342.3228571428572</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>340.66</v>
+      </c>
+      <c r="R283" t="n">
+        <v>338.13</v>
+      </c>
+      <c r="S283" t="n">
+        <v>335.7128571428572</v>
+      </c>
+      <c r="T283" t="n">
+        <v>338.39</v>
+      </c>
+      <c r="U283" t="n">
+        <v>340.24</v>
+      </c>
+      <c r="V283" t="n">
+        <v>353.2985714285714</v>
+      </c>
+      <c r="W283" t="n">
+        <v>357.4784615384615</v>
+      </c>
+      <c r="X283" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:07:01+00:00</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>355.7055555555555</v>
+      </c>
+      <c r="C284" t="n">
+        <v>346.52</v>
+      </c>
+      <c r="D284" t="n">
+        <v>350.5842857142857</v>
+      </c>
+      <c r="E284" t="n">
+        <v>339.67</v>
+      </c>
+      <c r="F284" t="n">
+        <v>345.4655555555556</v>
+      </c>
+      <c r="G284" t="n">
+        <v>343.24</v>
+      </c>
+      <c r="H284" t="n">
+        <v>341.3063636363636</v>
+      </c>
+      <c r="I284" t="n">
+        <v>335.2863636363636</v>
+      </c>
+      <c r="J284" t="n">
+        <v>338.1055555555556</v>
+      </c>
+      <c r="K284" t="n">
+        <v>343.35</v>
+      </c>
+      <c r="L284" t="n">
+        <v>336.4163636363636</v>
+      </c>
+      <c r="M284" t="n">
+        <v>335.3371428571429</v>
+      </c>
+      <c r="N284" t="n">
+        <v>343.6655555555556</v>
+      </c>
+      <c r="O284" t="n">
+        <v>346.7</v>
+      </c>
+      <c r="P284" t="n">
+        <v>348.7142857142857</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>356.2133333333333</v>
+      </c>
+      <c r="R284" t="n">
+        <v>347.42</v>
+      </c>
+      <c r="S284" t="n">
+        <v>353.4442857142857</v>
+      </c>
+      <c r="T284" t="n">
+        <v>347.0766666666667</v>
+      </c>
+      <c r="U284" t="n">
+        <v>357.76</v>
+      </c>
+      <c r="V284" t="n">
+        <v>357.1061904761905</v>
+      </c>
+      <c r="W284" t="n">
+        <v>370.7430769230769</v>
+      </c>
+      <c r="X284" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:53+00:00</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>358.9366666666667</v>
+      </c>
+      <c r="C285" t="n">
+        <v>349.96</v>
+      </c>
+      <c r="D285" t="n">
+        <v>344.0342857142857</v>
+      </c>
+      <c r="E285" t="n">
+        <v>352.37</v>
+      </c>
+      <c r="F285" t="n">
+        <v>345.0866666666667</v>
+      </c>
+      <c r="G285" t="n">
+        <v>355.09</v>
+      </c>
+      <c r="H285" t="n">
+        <v>357.9027272727272</v>
+      </c>
+      <c r="I285" t="n">
+        <v>352.8227272727273</v>
+      </c>
+      <c r="J285" t="n">
+        <v>349.8066666666667</v>
+      </c>
+      <c r="K285" t="n">
+        <v>352.1</v>
+      </c>
+      <c r="L285" t="n">
+        <v>350.7727272727273</v>
+      </c>
+      <c r="M285" t="n">
+        <v>347.3171428571428</v>
+      </c>
+      <c r="N285" t="n">
+        <v>346.3166666666667</v>
+      </c>
+      <c r="O285" t="n">
+        <v>353.07</v>
+      </c>
+      <c r="P285" t="n">
+        <v>352.3242857142857</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>357.61</v>
+      </c>
+      <c r="R285" t="n">
+        <v>354.89</v>
+      </c>
+      <c r="S285" t="n">
+        <v>356.0742857142857</v>
+      </c>
+      <c r="T285" t="n">
+        <v>361.05</v>
+      </c>
+      <c r="U285" t="n">
+        <v>353.07</v>
+      </c>
+      <c r="V285" t="n">
+        <v>334.1528571428572</v>
+      </c>
+      <c r="W285" t="inlineStr"/>
+      <c r="X285" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19405,7 +19637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B288"/>
+  <dimension ref="A1:B291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22293,6 +22525,36 @@
       </c>
       <c r="B288" t="n">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -22461,28 +22723,28 @@
         <v>0.0524</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3549312189443442</v>
+        <v>-0.3295449107839574</v>
       </c>
       <c r="J2" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K2" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01500301543637139</v>
+        <v>0.01329400477408627</v>
       </c>
       <c r="M2" t="n">
-        <v>12.69661609366642</v>
+        <v>12.61002387294708</v>
       </c>
       <c r="N2" t="n">
-        <v>417.5265174234289</v>
+        <v>412.6057961311473</v>
       </c>
       <c r="O2" t="n">
-        <v>20.43346562439737</v>
+        <v>20.31270036531695</v>
       </c>
       <c r="P2" t="n">
-        <v>354.3130444510901</v>
+        <v>354.0600068804357</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -22538,28 +22800,28 @@
         <v>0.0573</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.290421514861237</v>
+        <v>-0.2764477824273536</v>
       </c>
       <c r="J3" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K3" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0126415214618093</v>
+        <v>0.0118058319924409</v>
       </c>
       <c r="M3" t="n">
-        <v>11.92277086133159</v>
+        <v>11.79189587544723</v>
       </c>
       <c r="N3" t="n">
-        <v>343.9302130270257</v>
+        <v>338.6966926757734</v>
       </c>
       <c r="O3" t="n">
-        <v>18.54535556485844</v>
+        <v>18.40371410003354</v>
       </c>
       <c r="P3" t="n">
-        <v>349.4307304332747</v>
+        <v>349.2939586713813</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -22615,28 +22877,28 @@
         <v>0.0386</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1436531686732433</v>
+        <v>-0.1292823949811346</v>
       </c>
       <c r="J4" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K4" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002842576969425248</v>
+        <v>0.002372696669114105</v>
       </c>
       <c r="M4" t="n">
-        <v>13.62913953725449</v>
+        <v>13.47270732419723</v>
       </c>
       <c r="N4" t="n">
-        <v>390.2970872093539</v>
+        <v>384.3503823779666</v>
       </c>
       <c r="O4" t="n">
-        <v>19.755938024031</v>
+        <v>19.60485609174336</v>
       </c>
       <c r="P4" t="n">
-        <v>344.5858884479877</v>
+        <v>344.4490609765224</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -22692,28 +22954,28 @@
         <v>0.0604</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3452175830111796</v>
+        <v>-0.3166918257821463</v>
       </c>
       <c r="J5" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K5" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01779959581474522</v>
+        <v>0.01531631497597041</v>
       </c>
       <c r="M5" t="n">
-        <v>12.4186232239893</v>
+        <v>12.36800517497456</v>
       </c>
       <c r="N5" t="n">
-        <v>345.2848376183782</v>
+        <v>342.2964894768749</v>
       </c>
       <c r="O5" t="n">
-        <v>18.58184160997984</v>
+        <v>18.50125642968268</v>
       </c>
       <c r="P5" t="n">
-        <v>342.5564125147714</v>
+        <v>342.2748329671471</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -22769,28 +23031,28 @@
         <v>0.0506</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08346761324726386</v>
+        <v>-0.06242274647251599</v>
       </c>
       <c r="J6" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K6" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001377506120306959</v>
+        <v>0.0007858274190581938</v>
       </c>
       <c r="M6" t="n">
-        <v>12.14860430209803</v>
+        <v>12.09521669339574</v>
       </c>
       <c r="N6" t="n">
-        <v>258.8755412941005</v>
+        <v>256.6523461912645</v>
       </c>
       <c r="O6" t="n">
-        <v>16.08960973094439</v>
+        <v>16.02037284807269</v>
       </c>
       <c r="P6" t="n">
-        <v>336.2598986606301</v>
+        <v>336.0501704631517</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -22846,28 +23108,28 @@
         <v>0.0626</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1317846048744021</v>
+        <v>-0.1055470221134794</v>
       </c>
       <c r="J7" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K7" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002819887353625705</v>
+        <v>0.001838527144942814</v>
       </c>
       <c r="M7" t="n">
-        <v>13.53854310091959</v>
+        <v>13.50790616224947</v>
       </c>
       <c r="N7" t="n">
-        <v>308.5409420580701</v>
+        <v>307.0470596451</v>
       </c>
       <c r="O7" t="n">
-        <v>17.56533353107962</v>
+        <v>17.52275833438047</v>
       </c>
       <c r="P7" t="n">
-        <v>336.3144734478669</v>
+        <v>336.04810629811</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -22923,28 +23185,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.06359398556380232</v>
+        <v>-0.0332385840189823</v>
       </c>
       <c r="J8" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K8" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007654771806648863</v>
+        <v>0.0002115308775970659</v>
       </c>
       <c r="M8" t="n">
-        <v>12.37424102635411</v>
+        <v>12.35492161214636</v>
       </c>
       <c r="N8" t="n">
-        <v>263.2475677931345</v>
+        <v>263.025372140231</v>
       </c>
       <c r="O8" t="n">
-        <v>16.22490578688008</v>
+        <v>16.21805697795611</v>
       </c>
       <c r="P8" t="n">
-        <v>333.7180987535023</v>
+        <v>333.4071879896254</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -23000,28 +23262,28 @@
         <v>0.0641</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08405621663034964</v>
+        <v>-0.06254539969575178</v>
       </c>
       <c r="J9" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K9" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001218503283953454</v>
+        <v>0.0006860839612568004</v>
       </c>
       <c r="M9" t="n">
-        <v>12.94394843742045</v>
+        <v>12.87204216925938</v>
       </c>
       <c r="N9" t="n">
-        <v>289.3253449935932</v>
+        <v>287.5084366752274</v>
       </c>
       <c r="O9" t="n">
-        <v>17.00956627882067</v>
+        <v>16.95607373996785</v>
       </c>
       <c r="P9" t="n">
-        <v>334.0106013861777</v>
+        <v>333.7903866329213</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -23077,28 +23339,28 @@
         <v>0.0574</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08989931905885669</v>
+        <v>0.1022378007304049</v>
       </c>
       <c r="J10" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K10" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001207365440095587</v>
+        <v>0.001593093468113094</v>
       </c>
       <c r="M10" t="n">
-        <v>13.68660670756382</v>
+        <v>13.59465476398649</v>
       </c>
       <c r="N10" t="n">
-        <v>323.2012765099589</v>
+        <v>320.0841430513331</v>
       </c>
       <c r="O10" t="n">
-        <v>17.9777995458276</v>
+        <v>17.89089553519703</v>
       </c>
       <c r="P10" t="n">
-        <v>332.7076638236009</v>
+        <v>332.5790735585369</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -23154,28 +23416,28 @@
         <v>0.0466</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0476902870811808</v>
+        <v>-0.02053205813804931</v>
       </c>
       <c r="J11" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K11" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000364310361532949</v>
+        <v>6.8677919740745e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>13.43502602422447</v>
+        <v>13.38325784284108</v>
       </c>
       <c r="N11" t="n">
-        <v>310.3388642740603</v>
+        <v>308.6093118978164</v>
       </c>
       <c r="O11" t="n">
-        <v>17.61643733205043</v>
+        <v>17.56727958159192</v>
       </c>
       <c r="P11" t="n">
-        <v>333.2418024367811</v>
+        <v>332.9662900380158</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -23231,28 +23493,28 @@
         <v>0.0699</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1871752130305361</v>
+        <v>0.2152624922191136</v>
       </c>
       <c r="J12" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K12" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005736881324305831</v>
+        <v>0.007707751601909063</v>
       </c>
       <c r="M12" t="n">
-        <v>13.61394023056777</v>
+        <v>13.56044931042513</v>
       </c>
       <c r="N12" t="n">
-        <v>297.9431183010436</v>
+        <v>296.127647294206</v>
       </c>
       <c r="O12" t="n">
-        <v>17.26102888883057</v>
+        <v>17.20835980836657</v>
       </c>
       <c r="P12" t="n">
-        <v>326.1895316398634</v>
+        <v>325.9026889556735</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -23308,28 +23570,28 @@
         <v>0.1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1141723459864975</v>
+        <v>0.1349117494057177</v>
       </c>
       <c r="J13" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K13" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001931666684799049</v>
+        <v>0.00275111307445508</v>
       </c>
       <c r="M13" t="n">
-        <v>14.67932923368999</v>
+        <v>14.56955849949978</v>
       </c>
       <c r="N13" t="n">
-        <v>339.388143231906</v>
+        <v>336.1225547964747</v>
       </c>
       <c r="O13" t="n">
-        <v>18.42249014742323</v>
+        <v>18.33364543118675</v>
       </c>
       <c r="P13" t="n">
-        <v>327.9864219076311</v>
+        <v>327.7765106263596</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -23385,28 +23647,28 @@
         <v>0.0646</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2625815243805103</v>
+        <v>-0.2316523755230102</v>
       </c>
       <c r="J14" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K14" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006790125589778651</v>
+        <v>0.005413670483278121</v>
       </c>
       <c r="M14" t="n">
-        <v>15.8600923338873</v>
+        <v>15.74544130619461</v>
       </c>
       <c r="N14" t="n">
-        <v>509.9913378820427</v>
+        <v>504.8460405405475</v>
       </c>
       <c r="O14" t="n">
-        <v>22.58298779794301</v>
+        <v>22.46877924010442</v>
       </c>
       <c r="P14" t="n">
-        <v>337.2039422642765</v>
+        <v>336.895395769643</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -23462,28 +23724,28 @@
         <v>0.0524</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1176355293209999</v>
+        <v>-0.07555122151184449</v>
       </c>
       <c r="J15" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K15" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001084718247723604</v>
+        <v>0.0004579584010272475</v>
       </c>
       <c r="M15" t="n">
-        <v>15.41267250312168</v>
+        <v>15.33752969824431</v>
       </c>
       <c r="N15" t="n">
-        <v>635.4272698717317</v>
+        <v>629.5479595300236</v>
       </c>
       <c r="O15" t="n">
-        <v>25.20768275490097</v>
+        <v>25.09079431843527</v>
       </c>
       <c r="P15" t="n">
-        <v>335.6577553073168</v>
+        <v>335.2349589734027</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -23539,28 +23801,28 @@
         <v>0.0417</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.9335494530802119</v>
+        <v>-0.8582009930478742</v>
       </c>
       <c r="J16" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K16" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0398894237736237</v>
+        <v>0.03454820943846981</v>
       </c>
       <c r="M16" t="n">
-        <v>22.27016253906991</v>
+        <v>22.11053584149331</v>
       </c>
       <c r="N16" t="n">
-        <v>1028.152532639296</v>
+        <v>1023.091601620862</v>
       </c>
       <c r="O16" t="n">
-        <v>32.06481767668882</v>
+        <v>31.98580312608801</v>
       </c>
       <c r="P16" t="n">
-        <v>344.7693476229725</v>
+        <v>344.0078423646208</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -23616,28 +23878,28 @@
         <v>0.0401</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.062578492172302</v>
+        <v>-0.9822909531931202</v>
       </c>
       <c r="J17" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K17" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05137735590023285</v>
+        <v>0.04497667156662455</v>
       </c>
       <c r="M17" t="n">
-        <v>21.90405794465794</v>
+        <v>21.7781290607492</v>
       </c>
       <c r="N17" t="n">
-        <v>1043.870889077768</v>
+        <v>1040.435164407068</v>
       </c>
       <c r="O17" t="n">
-        <v>32.30899083966827</v>
+        <v>32.25577722528273</v>
       </c>
       <c r="P17" t="n">
-        <v>349.9930045802682</v>
+        <v>349.1925650237534</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -23693,28 +23955,28 @@
         <v>0.0573</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.7827642105204722</v>
+        <v>-0.7017858693834116</v>
       </c>
       <c r="J18" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K18" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01880756417607321</v>
+        <v>0.01549118281967998</v>
       </c>
       <c r="M18" t="n">
-        <v>29.41732880233782</v>
+        <v>29.21362864738905</v>
       </c>
       <c r="N18" t="n">
-        <v>1593.917068509764</v>
+        <v>1584.012222397907</v>
       </c>
       <c r="O18" t="n">
-        <v>39.92389094902655</v>
+        <v>39.79965103361972</v>
       </c>
       <c r="P18" t="n">
-        <v>336.9807496908035</v>
+        <v>336.1838994989455</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -23770,28 +24032,28 @@
         <v>0.0388</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.504774835384493</v>
+        <v>-1.416753679895935</v>
       </c>
       <c r="J19" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K19" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L19" t="n">
-        <v>0.09911471617395551</v>
+        <v>0.09005096900226994</v>
       </c>
       <c r="M19" t="n">
-        <v>22.47000182827136</v>
+        <v>22.40125596470635</v>
       </c>
       <c r="N19" t="n">
-        <v>1030.064270187974</v>
+        <v>1029.058966440511</v>
       </c>
       <c r="O19" t="n">
-        <v>32.0946143486407</v>
+        <v>32.07894896096988</v>
       </c>
       <c r="P19" t="n">
-        <v>355.6313924540619</v>
+        <v>354.7479471405612</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -23847,28 +24109,28 @@
         <v>0.0785</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.205526085370461</v>
+        <v>-1.117561610837552</v>
       </c>
       <c r="J20" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K20" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05582472251352377</v>
+        <v>0.04901074652448023</v>
       </c>
       <c r="M20" t="n">
-        <v>23.3819166055967</v>
+        <v>23.34310973914837</v>
       </c>
       <c r="N20" t="n">
-        <v>1216.185294349323</v>
+        <v>1214.757759331909</v>
       </c>
       <c r="O20" t="n">
-        <v>34.87384828706638</v>
+        <v>34.85337514978871</v>
       </c>
       <c r="P20" t="n">
-        <v>346.2568855695839</v>
+        <v>345.3704685631538</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -23924,28 +24186,28 @@
         <v>0.0535</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.6224935629196831</v>
+        <v>-0.5712374275952835</v>
       </c>
       <c r="J21" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K21" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03505460301544561</v>
+        <v>0.03012208682297801</v>
       </c>
       <c r="M21" t="n">
-        <v>16.61667921738779</v>
+        <v>16.63549401595869</v>
       </c>
       <c r="N21" t="n">
-        <v>530.2806132785475</v>
+        <v>529.0604466343575</v>
       </c>
       <c r="O21" t="n">
-        <v>23.02782259091266</v>
+        <v>23.00131401973282</v>
       </c>
       <c r="P21" t="n">
-        <v>345.9642297289591</v>
+        <v>345.4518626795192</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -23995,28 +24257,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-1.143560840998976</v>
+        <v>-1.053848637928323</v>
       </c>
       <c r="J22" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K22" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0593387616489085</v>
+        <v>0.05176742055859163</v>
       </c>
       <c r="M22" t="n">
-        <v>23.95310698449958</v>
+        <v>23.84162483344808</v>
       </c>
       <c r="N22" t="n">
-        <v>1014.898119542037</v>
+        <v>1013.141570308121</v>
       </c>
       <c r="O22" t="n">
-        <v>31.85746567983769</v>
+        <v>31.82988486168496</v>
       </c>
       <c r="P22" t="n">
-        <v>347.7593521379836</v>
+        <v>346.8719648737268</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -24072,28 +24334,28 @@
         <v>0.096</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.623302192316288</v>
+        <v>-1.536330484307573</v>
       </c>
       <c r="J23" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K23" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1090589305592291</v>
+        <v>0.09877500752042967</v>
       </c>
       <c r="M23" t="n">
-        <v>26.5925433030149</v>
+        <v>26.66234042785366</v>
       </c>
       <c r="N23" t="n">
-        <v>1072.545848146301</v>
+        <v>1082.541236257946</v>
       </c>
       <c r="O23" t="n">
-        <v>32.74974577223922</v>
+        <v>32.90199441155424</v>
       </c>
       <c r="P23" t="n">
-        <v>358.6596161992475</v>
+        <v>357.7870646114046</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -24130,7 +24392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X282"/>
+  <dimension ref="A1:X285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52378,6 +52640,368 @@
         </is>
       </c>
     </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:57+00:00</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>-39.86381928712553,174.81827129237652</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>-39.86355157289591,174.81744136528687</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>-39.86330792236682,174.81660066446915</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>-39.86307069364108,174.8157570882105</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>-39.862805843940734,174.8149258786367</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>-39.86252731323838,174.81410079478871</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>-39.86230725989936,174.81324952782919</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>-39.86207115939066,174.81240544560856</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>-39.86181648578148,174.81156967952737</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>-39.86160343008989,174.8107152778971</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>-39.86140866195212,174.809852686709</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>-39.86113736626741,174.80902436300659</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>-39.860922734863905,174.80817066527842</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>-39.86074756572214,174.8072992953852</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>-39.86050509794654,174.8064580616215</t>
+        </is>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>-39.860257557163536,174.80561909945212</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>-39.86000263230951,174.80478344395647</t>
+        </is>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>-39.85974866766771,174.80394735841068</t>
+        </is>
+      </c>
+      <c r="T283" t="inlineStr">
+        <is>
+          <t>-39.85953807769094,174.80309184765724</t>
+        </is>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>-39.85932044412578,174.80223949069094</t>
+        </is>
+      </c>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t>-39.85919824490531,174.80134439165752</t>
+        </is>
+      </c>
+      <c r="W283" t="inlineStr">
+        <is>
+          <t>-39.85900044722352,174.8004831488167</t>
+        </is>
+      </c>
+      <c r="X283" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:07:01+00:00</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>-39.86388631754429,174.81824128223093</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>-39.86357473311782,174.81743099607814</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>-39.86337596755378,174.81657019899654</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>-39.863049662193674,174.8157665046452</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>-39.86286563633678,174.81489910725034</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>-39.86261331195496,174.81406228918698</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>-39.8623634724565,174.81322435843762</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>-39.8620788380955,174.81240200738233</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>-39.86186946599313,174.81154595663511</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>-39.86168074320683,174.8106806588589</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>-39.86138832743265,174.80986179219326</t>
+        </is>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>-39.861145759258804,174.8090206046926</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>-39.860983292679265,174.80814354747514</t>
+        </is>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>-39.86077574903432,174.80728667465954</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>-39.8605595182751,174.80643369131695</t>
+        </is>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>-39.860389987007416,174.80555979416243</t>
+        </is>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>-39.8600817324618,174.80474802043653</t>
+        </is>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>-39.85989964248293,174.80387974598042</t>
+        </is>
+      </c>
+      <c r="T284" t="inlineStr">
+        <is>
+          <t>-39.859612040454884,174.8030587236845</t>
+        </is>
+      </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>-39.85946961815657,174.8021726823566</t>
+        </is>
+      </c>
+      <c r="V284" t="inlineStr">
+        <is>
+          <t>-39.85923066481208,174.80132987196876</t>
+        </is>
+      </c>
+      <c r="W284" t="inlineStr">
+        <is>
+          <t>-39.8591133883368,174.80043256564804</t>
+        </is>
+      </c>
+      <c r="X284" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:53+00:00</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>-39.86391382981573,174.8182289647124</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>-39.86360402398549,174.81741788206926</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>-39.86332019580206,174.81659516936048</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>-39.86315779958775,174.81571808809997</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>-39.86286241019657,174.81490055172029</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>-39.862714211424155,174.81401711170452</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>-39.86250478563209,174.81316108472762</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>-39.86222815482701,174.81233514898491</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>-39.8619690971611,174.81150134479378</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>-39.86175524647674,174.81064729793084</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>-39.86151056675707,174.80980705522626</t>
+        </is>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>-39.8612477645048,174.80897492749008</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>-39.86100586586124,174.80813343918675</t>
+        </is>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>-39.86082998700615,174.8072623864072</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>-39.86059025590606,174.80641992649063</t>
+        </is>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>-39.86040187901302,174.8055544686231</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>-39.8601453361292,174.80471953666665</t>
+        </is>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>-39.85992203569885,174.80386971739628</t>
+        </is>
+      </c>
+      <c r="T285" t="inlineStr">
+        <is>
+          <t>-39.85973101660934,174.80300544046568</t>
+        </is>
+      </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>-39.85942968515753,174.80219056657845</t>
+        </is>
+      </c>
+      <c r="V285" t="inlineStr">
+        <is>
+          <t>-39.859035229025444,174.80141740028813</t>
+        </is>
+      </c>
+      <c r="W285" t="inlineStr"/>
+      <c r="X285" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0299/nzd0299.xlsx
+++ b/data/nzd0299/nzd0299.xlsx
@@ -22568,7 +22568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22659,35 +22659,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -22746,27 +22751,28 @@
       <c r="P2" t="n">
         <v>354.0600068804357</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.81959723143692 -39.860857547756034, 174.81614220625283 -39.868574467093666)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.8195972314369</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-39.86085754775603</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.8161422062528</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-39.86857446709367</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.8178697188449</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-39.86471600742485</v>
       </c>
     </row>
@@ -22823,27 +22829,28 @@
       <c r="P3" t="n">
         <v>349.2939586713813</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.81875194870125 -39.86062418205413, 174.81529686693952 -39.868341095335936)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.8187519487012</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-39.86062418205413</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.8152968669395</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-39.86834109533594</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.8170244078204</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-39.86448263869504</v>
       </c>
     </row>
@@ -22900,27 +22907,28 @@
       <c r="P4" t="n">
         <v>344.4490609765224</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.81790666596515 -39.860390815558844, 174.8144515276272 -39.86810772278381)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.8179066659652</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-39.86039081555884</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.8144515276272</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-39.86810772278381</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.8161790967962</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-39.86424926917132</v>
       </c>
     </row>
@@ -22977,27 +22985,28 @@
       <c r="P5" t="n">
         <v>342.2748329671471</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.81706138322858 -39.86015744827017, 174.81360618831587 -39.86787434943734)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.8170613832286</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-39.86015744827017</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.8136061883159</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-39.86787434943734</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.8153337857722</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-39.86401589885376</v>
       </c>
     </row>
@@ -23054,27 +23063,28 @@
       <c r="P6" t="n">
         <v>336.0501704631517</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.81621610049146 -39.85992408018808, 174.81276084900563 -39.86764097529654)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.8162161004915</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-39.85992408018808</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.8127608490056</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-39.86764097529654</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.8144884747485</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-39.86378252774231</v>
       </c>
     </row>
@@ -23131,27 +23141,28 @@
       <c r="P7" t="n">
         <v>336.04810629811</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.81537081775394 -39.85969071131265, 174.81191550969612 -39.86740760036131)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.8153708177539</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-39.85969071131265</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.8119155096961</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-39.86740760036131</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.813643163725</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-39.86354915583698</v>
       </c>
     </row>
@@ -23208,27 +23219,28 @@
       <c r="P8" t="n">
         <v>333.4071879896254</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.8145255350159 -39.859457341643775, 174.8110701703877 -39.86717422463177)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.8145255350159</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-39.85945734164378</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.8110701703877</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-39.86717422463177</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.8127978527018</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-39.86331578313777</v>
       </c>
     </row>
@@ -23285,27 +23297,28 @@
       <c r="P9" t="n">
         <v>333.7903866329213</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.81368025227735 -39.85922397118153, 174.81022483108026 -39.866940848107866)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.8136802522774</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-39.85922397118153</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.8102248310803</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-39.86694084810787</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.8119525416788</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-39.8630824096447</v>
       </c>
     </row>
@@ -23362,27 +23375,28 @@
       <c r="P10" t="n">
         <v>332.5790735585369</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.81283496953836 -39.85899059992588, 174.80937949177383 -39.86670747078962)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.8128349695384</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-39.85899059992588</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.8093794917738</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-39.86670747078962</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.8111072306561</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-39.86284903535775</v>
       </c>
     </row>
@@ -23439,27 +23453,28 @@
       <c r="P11" t="n">
         <v>332.9662900380158</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.81198968679882 -39.85875722787685, 174.80853415246833 -39.86647409267699)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.8119896867988</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-39.85875722787685</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.8085341524683</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-39.86647409267699</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.8102619196336</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-39.86261566027692</v>
       </c>
     </row>
@@ -23516,27 +23531,28 @@
       <c r="P12" t="n">
         <v>325.9026889556735</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.81114440405887 -39.85852385503441, 174.80768881316385 -39.86624071377002)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.8111444040589</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-39.85852385503441</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.8076888131638</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-39.86624071377002</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.8094166086113</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-39.86238228440222</v>
       </c>
     </row>
@@ -23593,27 +23609,28 @@
       <c r="P13" t="n">
         <v>327.7765106263596</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.81029912131828 -39.8582904813986, 174.80684347386043 -39.86600733406872)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.8102991213183</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-39.8582904813986</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.8068434738604</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-39.86600733406872</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.8085712975894</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-39.86214890773365</v>
       </c>
     </row>
@@ -23670,27 +23687,28 @@
       <c r="P14" t="n">
         <v>336.895395769643</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.8094538385773 -39.85805710696941, 174.80599813455785 -39.865773953573054)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.8094538385773</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-39.85805710696941</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.8059981345579</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-39.86577395357305</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.8077259865676</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-39.86191553027123</v>
       </c>
     </row>
@@ -23747,27 +23765,28 @@
       <c r="P15" t="n">
         <v>335.2349589734027</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.8086085558359 -39.857823731746805, 174.80515279525622 -39.865540572283024)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.8086085558359</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-39.85782373174681</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.8051527952562</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-39.86554057228302</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.806880675546</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-39.86168215201491</v>
       </c>
     </row>
@@ -23824,27 +23843,28 @@
       <c r="P16" t="n">
         <v>344.0078423646208</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.80776327309394 -39.85759035573085, 174.80430745595555 -39.86530719019865)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.8077632730939</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-39.85759035573085</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.8043074559556</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-39.86530719019865</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.8060353645247</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-39.86144877296475</v>
       </c>
     </row>
@@ -23901,27 +23921,28 @@
       <c r="P17" t="n">
         <v>349.1925650237534</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.80691799035145 -39.857356978921516, 174.8034621166559 -39.86507380731994)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.8069179903515</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-39.85735697892152</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.8034621166559</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-39.86507380731994</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.8051900535037</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-39.86121539312073</v>
       </c>
     </row>
@@ -23978,27 +23999,28 @@
       <c r="P18" t="n">
         <v>336.1838994989455</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.80607270760848 -39.85712360131877, 174.80261677735726 -39.86484042364686)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.8060727076085</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-39.85712360131877</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.8026167773573</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-39.86484042364686</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.8043447424829</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-39.86098201248281</v>
       </c>
     </row>
@@ -24055,27 +24077,28 @@
       <c r="P19" t="n">
         <v>354.7479471405612</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.8052274248651 -39.85689022292267, 174.8017714380596 -39.864607039179475)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.8052274248651</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-39.85689022292267</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.8017714380596</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-39.86460703917948</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.8034994314623</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-39.86074863105107</v>
       </c>
     </row>
@@ -24132,27 +24155,28 @@
       <c r="P20" t="n">
         <v>345.3704685631538</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (174.8043821421212 -39.85665684373313, 174.80092609876294 -39.86437365391774)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>174.8043821421212</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-39.85665684373313</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>174.8009260987629</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-39.86437365391774</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>174.8026541204421</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-39.86051524882544</v>
       </c>
     </row>
@@ -24209,27 +24233,28 @@
       <c r="P21" t="n">
         <v>345.4518626795192</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (174.80353685937678 -39.85642346375029, 174.80008075946716 -39.864140267861636)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>174.8035368593768</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-39.85642346375029</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>174.8000807594672</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-39.86414026786164</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>174.801808809422</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-39.86028186580596</v>
       </c>
     </row>
@@ -24280,27 +24305,28 @@
       <c r="P22" t="n">
         <v>346.8719648737268</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (174.8026915766319 -39.85619008297404, 174.7992354201725 -39.863906881011204)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>174.8026915766319</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-39.85619008297404</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>174.7992354201725</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-39.8639068810112</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>174.8009634984022</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-39.86004848199262</v>
       </c>
     </row>
@@ -24357,27 +24383,28 @@
       <c r="P23" t="n">
         <v>357.7870646114046</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (174.80184629388646 -39.85595670140438, 174.79839008087882 -39.86367349336648)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>174.8018462938865</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-39.85595670140438</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>174.7983900808788</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-39.86367349336648</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>174.8001181873826</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-39.85981509738543</v>
       </c>
     </row>

--- a/data/nzd0299/nzd0299.xlsx
+++ b/data/nzd0299/nzd0299.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X285"/>
+  <dimension ref="A1:X289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19626,6 +19626,308 @@
         </is>
       </c>
     </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>359.6188888888889</v>
+      </c>
+      <c r="C286" t="n">
+        <v>354.56</v>
+      </c>
+      <c r="D286" t="n">
+        <v>352.5428571428571</v>
+      </c>
+      <c r="E286" t="n">
+        <v>355.27</v>
+      </c>
+      <c r="F286" t="n">
+        <v>351.7688888888889</v>
+      </c>
+      <c r="G286" t="n">
+        <v>355.24</v>
+      </c>
+      <c r="H286" t="n">
+        <v>352.4472727272728</v>
+      </c>
+      <c r="I286" t="n">
+        <v>353.5572727272727</v>
+      </c>
+      <c r="J286" t="n">
+        <v>356.0988888888889</v>
+      </c>
+      <c r="K286" t="n">
+        <v>351.87</v>
+      </c>
+      <c r="L286" t="n">
+        <v>346.6772727272727</v>
+      </c>
+      <c r="M286" t="n">
+        <v>347.7914285714286</v>
+      </c>
+      <c r="N286" t="n">
+        <v>352.9788888888889</v>
+      </c>
+      <c r="O286" t="n">
+        <v>356.96</v>
+      </c>
+      <c r="P286" t="n">
+        <v>353.4128571428571</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>358.4733333333333</v>
+      </c>
+      <c r="R286" t="n">
+        <v>358.17</v>
+      </c>
+      <c r="S286" t="n">
+        <v>365.8128571428572</v>
+      </c>
+      <c r="T286" t="n">
+        <v>359.6966666666667</v>
+      </c>
+      <c r="U286" t="n">
+        <v>355.67</v>
+      </c>
+      <c r="V286" t="n">
+        <v>361.3219047619048</v>
+      </c>
+      <c r="W286" t="n">
+        <v>365.5253846153847</v>
+      </c>
+      <c r="X286" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>351.73</v>
+      </c>
+      <c r="C287" t="n">
+        <v>341.52</v>
+      </c>
+      <c r="D287" t="n">
+        <v>351.2628571428572</v>
+      </c>
+      <c r="E287" t="n">
+        <v>343.77</v>
+      </c>
+      <c r="F287" t="n">
+        <v>341.82</v>
+      </c>
+      <c r="G287" t="n">
+        <v>336.77</v>
+      </c>
+      <c r="H287" t="n">
+        <v>336.5072727272727</v>
+      </c>
+      <c r="I287" t="n">
+        <v>329.8572727272727</v>
+      </c>
+      <c r="J287" t="n">
+        <v>335.16</v>
+      </c>
+      <c r="K287" t="n">
+        <v>338.42</v>
+      </c>
+      <c r="L287" t="n">
+        <v>327.4672727272728</v>
+      </c>
+      <c r="M287" t="n">
+        <v>327.2914285714286</v>
+      </c>
+      <c r="N287" t="n">
+        <v>339.32</v>
+      </c>
+      <c r="O287" t="n">
+        <v>337.76</v>
+      </c>
+      <c r="P287" t="n">
+        <v>343.2428571428572</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>346.4</v>
+      </c>
+      <c r="R287" t="n">
+        <v>347.64</v>
+      </c>
+      <c r="S287" t="n">
+        <v>349.1528571428572</v>
+      </c>
+      <c r="T287" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="U287" t="n">
+        <v>348.04</v>
+      </c>
+      <c r="V287" t="n">
+        <v>347.9685714285715</v>
+      </c>
+      <c r="W287" t="n">
+        <v>350.3215384615385</v>
+      </c>
+      <c r="X287" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>356.6811111111111</v>
+      </c>
+      <c r="C288" t="n">
+        <v>346.43</v>
+      </c>
+      <c r="D288" t="n">
+        <v>359.5657142857143</v>
+      </c>
+      <c r="E288" t="n">
+        <v>313.89</v>
+      </c>
+      <c r="F288" t="n">
+        <v>315.9311111111111</v>
+      </c>
+      <c r="G288" t="n">
+        <v>337.72</v>
+      </c>
+      <c r="H288" t="n">
+        <v>338.5854545454546</v>
+      </c>
+      <c r="I288" t="n">
+        <v>297.3254545454545</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>323.4254545454546</v>
+      </c>
+      <c r="M288" t="n">
+        <v>327.5828571428572</v>
+      </c>
+      <c r="N288" t="n">
+        <v>350.1511111111111</v>
+      </c>
+      <c r="O288" t="n">
+        <v>349.84</v>
+      </c>
+      <c r="P288" t="n">
+        <v>357.0457142857143</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>361.4366666666667</v>
+      </c>
+      <c r="R288" t="n">
+        <v>353.05</v>
+      </c>
+      <c r="S288" t="n">
+        <v>353.0957142857143</v>
+      </c>
+      <c r="T288" t="n">
+        <v>342.8133333333333</v>
+      </c>
+      <c r="U288" t="n">
+        <v>360.93</v>
+      </c>
+      <c r="V288" t="n">
+        <v>361.0338095238095</v>
+      </c>
+      <c r="W288" t="n">
+        <v>351.6046153846154</v>
+      </c>
+      <c r="X288" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:24+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>360.9255555555556</v>
+      </c>
+      <c r="C289" t="n">
+        <v>358.76</v>
+      </c>
+      <c r="D289" t="n">
+        <v>368.0071428571428</v>
+      </c>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="n">
+        <v>357.07</v>
+      </c>
+      <c r="H289" t="n">
+        <v>349.449090909091</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>341.6155555555555</v>
+      </c>
+      <c r="K289" t="n">
+        <v>352.02</v>
+      </c>
+      <c r="L289" t="n">
+        <v>347.2990909090909</v>
+      </c>
+      <c r="M289" t="n">
+        <v>342.9885714285714</v>
+      </c>
+      <c r="N289" t="n">
+        <v>354.0055555555556</v>
+      </c>
+      <c r="O289" t="n">
+        <v>352.39</v>
+      </c>
+      <c r="P289" t="n">
+        <v>359.9371428571428</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>366.0733333333333</v>
+      </c>
+      <c r="R289" t="n">
+        <v>357.06</v>
+      </c>
+      <c r="S289" t="n">
+        <v>363.3071428571428</v>
+      </c>
+      <c r="T289" t="n">
+        <v>353.7966666666667</v>
+      </c>
+      <c r="U289" t="n">
+        <v>363.02</v>
+      </c>
+      <c r="V289" t="n">
+        <v>359.4847619047619</v>
+      </c>
+      <c r="W289" t="n">
+        <v>353.1923076923077</v>
+      </c>
+      <c r="X289" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19637,7 +19939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B291"/>
+  <dimension ref="A1:B295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22555,6 +22857,46 @@
       </c>
       <c r="B291" t="n">
         <v>-0.15</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>
@@ -22728,28 +23070,28 @@
         <v>0.0524</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3295449107839574</v>
+        <v>-0.2867942528185581</v>
       </c>
       <c r="J2" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K2" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01329400477408627</v>
+        <v>0.01041709203792374</v>
       </c>
       <c r="M2" t="n">
-        <v>12.61002387294708</v>
+        <v>12.53943184007186</v>
       </c>
       <c r="N2" t="n">
-        <v>412.6057961311473</v>
+        <v>407.1123176418559</v>
       </c>
       <c r="O2" t="n">
-        <v>20.31270036531695</v>
+        <v>20.17702449921335</v>
       </c>
       <c r="P2" t="n">
-        <v>354.0600068804357</v>
+        <v>353.6304041070102</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22806,28 +23148,28 @@
         <v>0.0573</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2764477824273536</v>
+        <v>-0.2454033611988366</v>
       </c>
       <c r="J3" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K3" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0118058319924409</v>
+        <v>0.009633336263084935</v>
       </c>
       <c r="M3" t="n">
-        <v>11.79189587544723</v>
+        <v>11.6947025103972</v>
       </c>
       <c r="N3" t="n">
-        <v>338.6966926757734</v>
+        <v>333.677652285401</v>
       </c>
       <c r="O3" t="n">
-        <v>18.40371410003354</v>
+        <v>18.26684571253069</v>
       </c>
       <c r="P3" t="n">
-        <v>349.2939586713813</v>
+        <v>348.9873558070336</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22884,28 +23226,28 @@
         <v>0.0386</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1292823949811346</v>
+        <v>-0.06476271876071153</v>
       </c>
       <c r="J4" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K4" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002372696669114105</v>
+        <v>0.0006100358262309813</v>
       </c>
       <c r="M4" t="n">
-        <v>13.47270732419723</v>
+        <v>13.49119484775674</v>
       </c>
       <c r="N4" t="n">
-        <v>384.3503823779666</v>
+        <v>382.6233529522748</v>
       </c>
       <c r="O4" t="n">
-        <v>19.60485609174336</v>
+        <v>19.56076054125388</v>
       </c>
       <c r="P4" t="n">
-        <v>344.4490609765224</v>
+        <v>343.8280342325395</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22962,28 +23304,28 @@
         <v>0.0604</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3166918257821463</v>
+        <v>-0.3082786730338593</v>
       </c>
       <c r="J5" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K5" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01531631497597041</v>
+        <v>0.01469635668234093</v>
       </c>
       <c r="M5" t="n">
-        <v>12.36800517497456</v>
+        <v>12.42702645550592</v>
       </c>
       <c r="N5" t="n">
-        <v>342.2964894768749</v>
+        <v>341.8921954525932</v>
       </c>
       <c r="O5" t="n">
-        <v>18.50125642968268</v>
+        <v>18.49032707803173</v>
       </c>
       <c r="P5" t="n">
-        <v>342.2748329671471</v>
+        <v>342.192009954228</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23040,28 +23382,28 @@
         <v>0.0506</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06242274647251599</v>
+        <v>-0.05781965738644792</v>
       </c>
       <c r="J6" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K6" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0007858274190581938</v>
+        <v>0.0006821371088706618</v>
       </c>
       <c r="M6" t="n">
-        <v>12.09521669339574</v>
+        <v>12.12200713227335</v>
       </c>
       <c r="N6" t="n">
-        <v>256.6523461912645</v>
+        <v>256.3411532901429</v>
       </c>
       <c r="O6" t="n">
-        <v>16.02037284807269</v>
+        <v>16.01065749087597</v>
       </c>
       <c r="P6" t="n">
-        <v>336.0501704631517</v>
+        <v>336.0046191417838</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23118,28 +23460,28 @@
         <v>0.0626</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1055470221134794</v>
+        <v>-0.06387553992925679</v>
       </c>
       <c r="J7" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K7" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001838527144942814</v>
+        <v>0.0006852335528392262</v>
       </c>
       <c r="M7" t="n">
-        <v>13.50790616224947</v>
+        <v>13.50266254815608</v>
       </c>
       <c r="N7" t="n">
-        <v>307.0470596451</v>
+        <v>306.2277367278357</v>
       </c>
       <c r="O7" t="n">
-        <v>17.52275833438047</v>
+        <v>17.49936389494875</v>
       </c>
       <c r="P7" t="n">
-        <v>336.04810629811</v>
+        <v>335.621990191779</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23196,28 +23538,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0332385840189823</v>
+        <v>0.003306419333020668</v>
       </c>
       <c r="J8" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K8" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002115308775970659</v>
+        <v>2.133353352418155e-06</v>
       </c>
       <c r="M8" t="n">
-        <v>12.35492161214636</v>
+        <v>12.31521512983692</v>
       </c>
       <c r="N8" t="n">
-        <v>263.025372140231</v>
+        <v>261.5536801632146</v>
       </c>
       <c r="O8" t="n">
-        <v>16.21805697795611</v>
+        <v>16.17262131391243</v>
       </c>
       <c r="P8" t="n">
-        <v>333.4071879896254</v>
+        <v>333.0301332431076</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23274,28 +23616,28 @@
         <v>0.0641</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.06254539969575178</v>
+        <v>-0.07524883533062236</v>
       </c>
       <c r="J9" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K9" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0006860839612568004</v>
+        <v>0.0009906850545615686</v>
       </c>
       <c r="M9" t="n">
-        <v>12.87204216925938</v>
+        <v>12.96784969577551</v>
       </c>
       <c r="N9" t="n">
-        <v>287.5084366752274</v>
+        <v>290.9663852824096</v>
       </c>
       <c r="O9" t="n">
-        <v>16.95607373996785</v>
+        <v>17.05773681595567</v>
       </c>
       <c r="P9" t="n">
-        <v>333.7903866329213</v>
+        <v>333.9223525490859</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23352,28 +23694,28 @@
         <v>0.0574</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1022378007304049</v>
+        <v>0.1242055963701687</v>
       </c>
       <c r="J10" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K10" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001593093468113094</v>
+        <v>0.002389801105683653</v>
       </c>
       <c r="M10" t="n">
-        <v>13.59465476398649</v>
+        <v>13.52570446618763</v>
       </c>
       <c r="N10" t="n">
-        <v>320.0841430513331</v>
+        <v>318.0328019083394</v>
       </c>
       <c r="O10" t="n">
-        <v>17.89089553519703</v>
+        <v>17.83347419625069</v>
       </c>
       <c r="P10" t="n">
-        <v>332.5790735585369</v>
+        <v>332.3495130920953</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23430,28 +23772,28 @@
         <v>0.0466</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.02053205813804931</v>
+        <v>0.0150686687675413</v>
       </c>
       <c r="J11" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K11" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L11" t="n">
-        <v>6.8677919740745e-05</v>
+        <v>3.747641237050736e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>13.38325784284108</v>
+        <v>13.37295817098424</v>
       </c>
       <c r="N11" t="n">
-        <v>308.6093118978164</v>
+        <v>307.9678249757431</v>
       </c>
       <c r="O11" t="n">
-        <v>17.56727958159192</v>
+        <v>17.54901207976515</v>
       </c>
       <c r="P11" t="n">
-        <v>332.9662900380158</v>
+        <v>332.6024613601435</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23508,28 +23850,28 @@
         <v>0.0699</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2152624922191136</v>
+        <v>0.2312097963425987</v>
       </c>
       <c r="J12" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K12" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007707751601909063</v>
+        <v>0.009095609076298472</v>
       </c>
       <c r="M12" t="n">
-        <v>13.56044931042513</v>
+        <v>13.50530824274907</v>
       </c>
       <c r="N12" t="n">
-        <v>296.127647294206</v>
+        <v>293.4754923732094</v>
       </c>
       <c r="O12" t="n">
-        <v>17.20835980836657</v>
+        <v>17.13112641869207</v>
       </c>
       <c r="P12" t="n">
-        <v>325.9026889556735</v>
+        <v>325.738477877801</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23586,28 +23928,28 @@
         <v>0.1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1349117494057177</v>
+        <v>0.1520370330855572</v>
       </c>
       <c r="J13" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K13" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00275111307445508</v>
+        <v>0.003583898863101065</v>
       </c>
       <c r="M13" t="n">
-        <v>14.56955849949978</v>
+        <v>14.45520566631769</v>
       </c>
       <c r="N13" t="n">
-        <v>336.1225547964747</v>
+        <v>332.0965088282359</v>
       </c>
       <c r="O13" t="n">
-        <v>18.33364543118675</v>
+        <v>18.22351527088657</v>
       </c>
       <c r="P13" t="n">
-        <v>327.7765106263596</v>
+        <v>327.6019358948462</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23664,28 +24006,28 @@
         <v>0.0646</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2316523755230102</v>
+        <v>-0.1694032508840972</v>
       </c>
       <c r="J14" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K14" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005413670483278121</v>
+        <v>0.002967186267177291</v>
       </c>
       <c r="M14" t="n">
-        <v>15.74544130619461</v>
+        <v>15.66557568022069</v>
       </c>
       <c r="N14" t="n">
-        <v>504.8460405405475</v>
+        <v>501.8556744073848</v>
       </c>
       <c r="O14" t="n">
-        <v>22.46877924010442</v>
+        <v>22.40213548765798</v>
       </c>
       <c r="P14" t="n">
-        <v>336.895395769643</v>
+        <v>336.2688555031003</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23742,28 +24084,28 @@
         <v>0.0524</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.07555122151184449</v>
+        <v>-0.01828319539713275</v>
       </c>
       <c r="J15" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K15" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004579584010272475</v>
+        <v>2.757735608116541e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>15.33752969824431</v>
+        <v>15.25201358670685</v>
       </c>
       <c r="N15" t="n">
-        <v>629.5479595300236</v>
+        <v>623.0733297271543</v>
       </c>
       <c r="O15" t="n">
-        <v>25.09079431843527</v>
+        <v>24.96143685221574</v>
       </c>
       <c r="P15" t="n">
-        <v>335.2349589734027</v>
+        <v>334.6544956564044</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23820,28 +24162,28 @@
         <v>0.0417</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.8582009930478742</v>
+        <v>-0.7443066707972861</v>
       </c>
       <c r="J16" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K16" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03454820943846981</v>
+        <v>0.02671173757006262</v>
       </c>
       <c r="M16" t="n">
-        <v>22.11053584149331</v>
+        <v>21.94091209429358</v>
       </c>
       <c r="N16" t="n">
-        <v>1023.091601620862</v>
+        <v>1021.645499418923</v>
       </c>
       <c r="O16" t="n">
-        <v>31.98580312608801</v>
+        <v>31.96318975663916</v>
       </c>
       <c r="P16" t="n">
-        <v>344.0078423646208</v>
+        <v>342.8460384624094</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23898,28 +24240,28 @@
         <v>0.0401</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.9822909531931202</v>
+        <v>-0.8588337816692901</v>
       </c>
       <c r="J17" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K17" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04497667156662455</v>
+        <v>0.03530706789675919</v>
       </c>
       <c r="M17" t="n">
-        <v>21.7781290607492</v>
+        <v>21.67624769919444</v>
       </c>
       <c r="N17" t="n">
-        <v>1040.435164407068</v>
+        <v>1041.97005861719</v>
       </c>
       <c r="O17" t="n">
-        <v>32.25577722528273</v>
+        <v>32.27956100409655</v>
       </c>
       <c r="P17" t="n">
-        <v>349.1925650237534</v>
+        <v>347.9504763307284</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23976,28 +24318,28 @@
         <v>0.0573</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.7017858693834116</v>
+        <v>-0.5763862639296711</v>
       </c>
       <c r="J18" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K18" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01549118281967998</v>
+        <v>0.01074759903537592</v>
       </c>
       <c r="M18" t="n">
-        <v>29.21362864738905</v>
+        <v>28.9927246593382</v>
       </c>
       <c r="N18" t="n">
-        <v>1584.012222397907</v>
+        <v>1577.192871223378</v>
       </c>
       <c r="O18" t="n">
-        <v>39.79965103361972</v>
+        <v>39.71388763673708</v>
       </c>
       <c r="P18" t="n">
-        <v>336.1838994989455</v>
+        <v>334.9394194419769</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -24054,28 +24396,28 @@
         <v>0.0388</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.416753679895935</v>
+        <v>-1.272850152558614</v>
       </c>
       <c r="J19" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K19" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L19" t="n">
-        <v>0.09005096900226994</v>
+        <v>0.07459830690639613</v>
       </c>
       <c r="M19" t="n">
-        <v>22.40125596470635</v>
+        <v>22.41064747334442</v>
       </c>
       <c r="N19" t="n">
-        <v>1029.058966440511</v>
+        <v>1037.655555920066</v>
       </c>
       <c r="O19" t="n">
-        <v>32.07894896096988</v>
+        <v>32.2126614224914</v>
       </c>
       <c r="P19" t="n">
-        <v>354.7479471405612</v>
+        <v>353.2908355907775</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -24132,28 +24474,28 @@
         <v>0.0785</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.117561610837552</v>
+        <v>-1.010194037727864</v>
       </c>
       <c r="J20" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K20" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04901074652448023</v>
+        <v>0.04119357970881943</v>
       </c>
       <c r="M20" t="n">
-        <v>23.34310973914837</v>
+        <v>23.2667384174217</v>
       </c>
       <c r="N20" t="n">
-        <v>1214.757759331909</v>
+        <v>1210.72626666958</v>
       </c>
       <c r="O20" t="n">
-        <v>34.85337514978871</v>
+        <v>34.79549204522879</v>
       </c>
       <c r="P20" t="n">
-        <v>345.3704685631538</v>
+        <v>344.2792207638188</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -24210,28 +24552,28 @@
         <v>0.0535</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.5712374275952835</v>
+        <v>-0.4855863956827254</v>
       </c>
       <c r="J21" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K21" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03012208682297801</v>
+        <v>0.02221093144549469</v>
       </c>
       <c r="M21" t="n">
-        <v>16.63549401595869</v>
+        <v>16.74863436839446</v>
       </c>
       <c r="N21" t="n">
-        <v>529.0604466343575</v>
+        <v>531.4341641129316</v>
       </c>
       <c r="O21" t="n">
-        <v>23.00131401973282</v>
+        <v>23.05285587758991</v>
       </c>
       <c r="P21" t="n">
-        <v>345.4518626795192</v>
+        <v>344.5880481675869</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -24282,28 +24624,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-1.053848637928323</v>
+        <v>-0.9069567045047162</v>
       </c>
       <c r="J22" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K22" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05176742055859163</v>
+        <v>0.03945209932774918</v>
       </c>
       <c r="M22" t="n">
-        <v>23.84162483344808</v>
+        <v>23.802988142272</v>
       </c>
       <c r="N22" t="n">
-        <v>1013.141570308121</v>
+        <v>1019.304823263936</v>
       </c>
       <c r="O22" t="n">
-        <v>31.82988486168496</v>
+        <v>31.9265535763561</v>
       </c>
       <c r="P22" t="n">
-        <v>346.8719648737268</v>
+        <v>345.4044593374798</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -24360,28 +24702,28 @@
         <v>0.096</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.536330484307573</v>
+        <v>-1.404496936823707</v>
       </c>
       <c r="J23" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K23" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L23" t="n">
-        <v>0.09877500752042967</v>
+        <v>0.08503331011657111</v>
       </c>
       <c r="M23" t="n">
-        <v>26.66234042785366</v>
+        <v>26.64547317212481</v>
       </c>
       <c r="N23" t="n">
-        <v>1082.541236257946</v>
+        <v>1085.980208781752</v>
       </c>
       <c r="O23" t="n">
-        <v>32.90199441155424</v>
+        <v>32.9542138243617</v>
       </c>
       <c r="P23" t="n">
-        <v>357.7870646114046</v>
+        <v>356.4495791331274</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -24419,7 +24761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X285"/>
+  <dimension ref="A1:X289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53029,6 +53371,474 @@
         </is>
       </c>
     </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>-39.86391963880273,174.81822636396964</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>-39.863643192004076,174.81740034587784</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>-39.863392644340514,174.81656273238724</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>-39.863182492375905,174.81570703233288</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>-39.86291930757601,174.81487507650417</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>-39.86271548863252,174.81401653983684</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>-39.862458334037974,174.81318188369985</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>-39.862234409254384,174.81233234848193</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>-39.86202267338701,174.8114773549164</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>-39.86175328810519,174.81064817484753</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>-39.861475695422335,174.8098226701159</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>-39.86125180287099,174.80897311913643</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>-39.86106259209365,174.80810803710614</t>
+        </is>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>-39.860863108779405,174.80724755415963</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>-39.860599524633415,174.80641577579675</t>
+        </is>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>-39.86040922991854,174.8055511767017</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>-39.860173263841894,174.80470702972087</t>
+        </is>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t>-39.86000495505796,174.80383258270942</t>
+        </is>
+      </c>
+      <c r="T286" t="inlineStr">
+        <is>
+          <t>-39.85971949363354,174.8030106010142</t>
+        </is>
+      </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>-39.85945182285453,174.80218065208692</t>
+        </is>
+      </c>
+      <c r="V286" t="inlineStr">
+        <is>
+          <t>-39.85926655943675,174.8013137960649</t>
+        </is>
+      </c>
+      <c r="W286" t="inlineStr">
+        <is>
+          <t>-39.859068962476826,174.80045246276947</t>
+        </is>
+      </c>
+      <c r="X286" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>-39.86385246647415,174.81825643767917</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>-39.86353215917981,174.8174500571184</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>-39.863381745434005,174.8165676120973</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>-39.86308457269303,174.81575087412298</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>-39.86283459537997,174.81491300550258</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>-39.862558221689376,174.81408695565736</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>-39.86232260959704,174.81324265494638</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>-39.86203261105247,174.8124227060478</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>-39.86184438553994,174.81155718688726</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>-39.861638765931964,174.81069945532835</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>-39.86131212909799,174.80989591258384</t>
+        </is>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>-39.86107725298362,174.80905128122384</t>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>-39.86094629195884,174.8081601164118</t>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>-39.860699628544715,174.80732076203475</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>-39.860512931360255,174.80645455369438</t>
+        </is>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>-39.86030643076115,174.80559721269913</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>-39.86008360566228,174.80474718155781</t>
+        </is>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>-39.859863102980555,174.80389610982712</t>
+        </is>
+      </c>
+      <c r="T287" t="inlineStr">
+        <is>
+          <t>-39.85952453960924,174.8030979106333</t>
+        </is>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>-39.859386857226085,174.80220974728883</t>
+        </is>
+      </c>
+      <c r="V287" t="inlineStr">
+        <is>
+          <t>-39.859152862709344,174.80136471665742</t>
+        </is>
+      </c>
+      <c r="W287" t="inlineStr">
+        <is>
+          <t>-39.85893950983866,174.80051044089842</t>
+        </is>
+      </c>
+      <c r="X287" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>-39.86389462420685,174.81823756325625</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>-39.863573966786966,174.8174313391771</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>-39.86345244235553,174.8165359593088</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>-39.8628301517409,174.8158647859695</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>-39.86261415818437,174.8150117035025</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>-39.86256631067767,174.81408333384414</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>-39.862340304709456,174.81323473189175</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>-39.861755612532185,174.8125467345805</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>-39.86127771444684,174.80991132288676</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>-39.861079734390024,174.80905017007208</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>-39.86103851466575,174.80811881901488</t>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>-39.86080248486403,174.80727470211906</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>-39.860630456881324,174.80640192380127</t>
+        </is>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>-39.86043446140432,174.80553987739884</t>
+        </is>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>-39.86012966936301,174.8047265527539</t>
+        </is>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>-39.859896674560694,174.80388107513502</t>
+        </is>
+      </c>
+      <c r="T288" t="inlineStr">
+        <is>
+          <t>-39.85957574023529,174.80307498062368</t>
+        </is>
+      </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>-39.85949660911607,174.80216059428915</t>
+        </is>
+      </c>
+      <c r="V288" t="inlineStr">
+        <is>
+          <t>-39.85926410645501,174.80131489466723</t>
+        </is>
+      </c>
+      <c r="W288" t="inlineStr">
+        <is>
+          <t>-39.858950434555126,174.80050554803938</t>
+        </is>
+      </c>
+      <c r="X288" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:24+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>-39.863930764810256,174.8182213827413</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>-39.86367895410583,174.81738433455584</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>-39.863524319172754,174.81650377818346</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>-39.862731070574384,174.81400956304944</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>-39.862432805398385,174.813193314285</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>-39.86189935250696,174.81153257436665</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>-39.86175456530405,174.81064760294535</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>-39.8614809899825,174.80982029928794</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>-39.861210908330335,174.80899143143114</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>-39.861071333760776,174.80810412257247</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>-39.86082419708159,174.80726497918945</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>-39.86065507617626,174.80639089884625</t>
+        </is>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>-39.8604739405887,174.80552219759625</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>-39.860163812695376,174.80471126225547</t>
+        </is>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>-39.85998362007942,174.80384213739578</t>
+        </is>
+      </c>
+      <c r="T289" t="inlineStr">
+        <is>
+          <t>-39.85966925799764,174.80303309895254</t>
+        </is>
+      </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>-39.859514404416835,174.80215262454882</t>
+        </is>
+      </c>
+      <c r="V289" t="inlineStr">
+        <is>
+          <t>-39.85925091711667,174.80132080169628</t>
+        </is>
+      </c>
+      <c r="W289" t="inlineStr">
+        <is>
+          <t>-39.85896395290905,174.80049949356425</t>
+        </is>
+      </c>
+      <c r="X289" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0299/nzd0299.xlsx
+++ b/data/nzd0299/nzd0299.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X289"/>
+  <dimension ref="A1:X291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19871,15 +19871,21 @@
       <c r="D289" t="n">
         <v>368.0071428571428</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
+      <c r="E289" t="n">
+        <v>355.73</v>
+      </c>
+      <c r="F289" t="n">
+        <v>361.7155555555556</v>
+      </c>
       <c r="G289" t="n">
         <v>357.07</v>
       </c>
       <c r="H289" t="n">
         <v>349.449090909091</v>
       </c>
-      <c r="I289" t="inlineStr"/>
+      <c r="I289" t="n">
+        <v>345.949090909091</v>
+      </c>
       <c r="J289" t="n">
         <v>341.6155555555555</v>
       </c>
@@ -19925,6 +19931,138 @@
       <c r="X289" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>358.75</v>
+      </c>
+      <c r="C290" t="n">
+        <v>354.62</v>
+      </c>
+      <c r="D290" t="n">
+        <v>362.5714285714286</v>
+      </c>
+      <c r="E290" t="n">
+        <v>347.94</v>
+      </c>
+      <c r="F290" t="n">
+        <v>357.25</v>
+      </c>
+      <c r="G290" t="n">
+        <v>349.68</v>
+      </c>
+      <c r="H290" t="n">
+        <v>346.0454545454546</v>
+      </c>
+      <c r="I290" t="n">
+        <v>338.7854545454546</v>
+      </c>
+      <c r="J290" t="n">
+        <v>344.32</v>
+      </c>
+      <c r="K290" t="n">
+        <v>343.54</v>
+      </c>
+      <c r="L290" t="n">
+        <v>334.8554545454546</v>
+      </c>
+      <c r="M290" t="n">
+        <v>334.1557142857143</v>
+      </c>
+      <c r="N290" t="n">
+        <v>347.83</v>
+      </c>
+      <c r="O290" t="n">
+        <v>344.4</v>
+      </c>
+      <c r="P290" t="n">
+        <v>346.0714285714286</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>357.31</v>
+      </c>
+      <c r="R290" t="n">
+        <v>343.01</v>
+      </c>
+      <c r="S290" t="n">
+        <v>347.6614285714285</v>
+      </c>
+      <c r="T290" t="n">
+        <v>338.03</v>
+      </c>
+      <c r="U290" t="n">
+        <v>349.12</v>
+      </c>
+      <c r="V290" t="n">
+        <v>343.4342857142857</v>
+      </c>
+      <c r="W290" t="n">
+        <v>334.2692307692308</v>
+      </c>
+      <c r="X290" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>350.0722222222223</v>
+      </c>
+      <c r="C291" t="n">
+        <v>342.78</v>
+      </c>
+      <c r="D291" t="n">
+        <v>340.9414285714286</v>
+      </c>
+      <c r="E291" t="n">
+        <v>341.84</v>
+      </c>
+      <c r="F291" t="n">
+        <v>339.1622222222222</v>
+      </c>
+      <c r="G291" t="n">
+        <v>341.04</v>
+      </c>
+      <c r="H291" t="n">
+        <v>339.9427272727273</v>
+      </c>
+      <c r="I291" t="n">
+        <v>337.7627272727273</v>
+      </c>
+      <c r="J291" t="n">
+        <v>337.1322222222223</v>
+      </c>
+      <c r="K291" t="n">
+        <v>329.14</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="inlineStr"/>
+      <c r="O291" t="inlineStr"/>
+      <c r="P291" t="inlineStr"/>
+      <c r="Q291" t="inlineStr"/>
+      <c r="R291" t="inlineStr"/>
+      <c r="S291" t="inlineStr"/>
+      <c r="T291" t="inlineStr"/>
+      <c r="U291" t="inlineStr"/>
+      <c r="V291" t="inlineStr"/>
+      <c r="W291" t="inlineStr"/>
+      <c r="X291" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -19939,7 +20077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B295"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22897,6 +23035,26 @@
       </c>
       <c r="B295" t="n">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>-0.26</v>
       </c>
     </row>
   </sheetData>
@@ -23070,28 +23228,28 @@
         <v>0.0524</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2867942528185581</v>
+        <v>-0.27205620227557</v>
       </c>
       <c r="J2" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K2" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01041709203792374</v>
+        <v>0.009537204216722217</v>
       </c>
       <c r="M2" t="n">
-        <v>12.53943184007186</v>
+        <v>12.47843160749771</v>
       </c>
       <c r="N2" t="n">
-        <v>407.1123176418559</v>
+        <v>403.904079596594</v>
       </c>
       <c r="O2" t="n">
-        <v>20.17702449921335</v>
+        <v>20.09736499137621</v>
       </c>
       <c r="P2" t="n">
-        <v>353.6304041070102</v>
+        <v>353.4813470692843</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23148,28 +23306,28 @@
         <v>0.0573</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2454033611988366</v>
+        <v>-0.2341110978178839</v>
       </c>
       <c r="J3" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K3" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009633336263084935</v>
+        <v>0.008922902561252499</v>
       </c>
       <c r="M3" t="n">
-        <v>11.6947025103972</v>
+        <v>11.62768269240089</v>
       </c>
       <c r="N3" t="n">
-        <v>333.677652285401</v>
+        <v>330.8614106650977</v>
       </c>
       <c r="O3" t="n">
-        <v>18.26684571253069</v>
+        <v>18.18959622050741</v>
       </c>
       <c r="P3" t="n">
-        <v>348.9873558070336</v>
+        <v>348.8752197677302</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23226,28 +23384,28 @@
         <v>0.0386</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06476271876071153</v>
+        <v>-0.04661721137557383</v>
       </c>
       <c r="J4" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K4" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006100358262309813</v>
+        <v>0.00032046893807125</v>
       </c>
       <c r="M4" t="n">
-        <v>13.49119484775674</v>
+        <v>13.45334110596035</v>
       </c>
       <c r="N4" t="n">
-        <v>382.6233529522748</v>
+        <v>380.7212044644639</v>
       </c>
       <c r="O4" t="n">
-        <v>19.56076054125388</v>
+        <v>19.51207842502853</v>
       </c>
       <c r="P4" t="n">
-        <v>343.8280342325395</v>
+        <v>343.6525018575052</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23304,28 +23462,28 @@
         <v>0.0604</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3082786730338593</v>
+        <v>-0.2728608652135289</v>
       </c>
       <c r="J5" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K5" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01469635668234093</v>
+        <v>0.01172581612828005</v>
       </c>
       <c r="M5" t="n">
-        <v>12.42702645550592</v>
+        <v>12.41639726080557</v>
       </c>
       <c r="N5" t="n">
-        <v>341.8921954525932</v>
+        <v>340.1985324816127</v>
       </c>
       <c r="O5" t="n">
-        <v>18.49032707803173</v>
+        <v>18.44447159670379</v>
       </c>
       <c r="P5" t="n">
-        <v>342.192009954228</v>
+        <v>341.8370099370345</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23382,28 +23540,28 @@
         <v>0.0506</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05781965738644792</v>
+        <v>-0.01636901986199047</v>
       </c>
       <c r="J6" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K6" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0006821371088706618</v>
+        <v>5.484053025939239e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>12.12200713227335</v>
+        <v>12.17424945727726</v>
       </c>
       <c r="N6" t="n">
-        <v>256.3411532901429</v>
+        <v>258.3071263906059</v>
       </c>
       <c r="O6" t="n">
-        <v>16.01065749087597</v>
+        <v>16.07193598763403</v>
       </c>
       <c r="P6" t="n">
-        <v>336.0046191417838</v>
+        <v>335.5856296424486</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23460,28 +23618,28 @@
         <v>0.0626</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06387553992925679</v>
+        <v>-0.04627870514757947</v>
       </c>
       <c r="J7" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K7" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0006852335528392262</v>
+        <v>0.0003638234538183571</v>
       </c>
       <c r="M7" t="n">
-        <v>13.50266254815608</v>
+        <v>13.48157985899369</v>
       </c>
       <c r="N7" t="n">
-        <v>306.2277367278357</v>
+        <v>304.869080230352</v>
       </c>
       <c r="O7" t="n">
-        <v>17.49936389494875</v>
+        <v>17.46050057215864</v>
       </c>
       <c r="P7" t="n">
-        <v>335.621990191779</v>
+        <v>335.4407977786678</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23538,28 +23696,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003306419333020668</v>
+        <v>0.01862950243019246</v>
       </c>
       <c r="J8" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K8" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L8" t="n">
-        <v>2.133353352418155e-06</v>
+        <v>6.850438016992033e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>12.31521512983692</v>
+        <v>12.28334536910218</v>
       </c>
       <c r="N8" t="n">
-        <v>261.5536801632146</v>
+        <v>260.2298491298367</v>
       </c>
       <c r="O8" t="n">
-        <v>16.17262131391243</v>
+        <v>16.13164124104664</v>
       </c>
       <c r="P8" t="n">
-        <v>333.0301332431076</v>
+        <v>332.8708531519825</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23616,28 +23774,28 @@
         <v>0.0641</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07524883533062236</v>
+        <v>-0.0549465414027553</v>
       </c>
       <c r="J9" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K9" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0009906850545615686</v>
+        <v>0.0005382785866681061</v>
       </c>
       <c r="M9" t="n">
-        <v>12.96784969577551</v>
+        <v>12.89475314371866</v>
       </c>
       <c r="N9" t="n">
-        <v>290.9663852824096</v>
+        <v>288.4106960808447</v>
       </c>
       <c r="O9" t="n">
-        <v>17.05773681595567</v>
+        <v>16.98265868705029</v>
       </c>
       <c r="P9" t="n">
-        <v>333.9223525490859</v>
+        <v>333.7118196712632</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23694,28 +23852,28 @@
         <v>0.0574</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1242055963701687</v>
+        <v>0.1325300884035885</v>
       </c>
       <c r="J10" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K10" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002389801105683653</v>
+        <v>0.002759190036014436</v>
       </c>
       <c r="M10" t="n">
-        <v>13.52570446618763</v>
+        <v>13.45098101378774</v>
       </c>
       <c r="N10" t="n">
-        <v>318.0328019083394</v>
+        <v>315.7135065800393</v>
       </c>
       <c r="O10" t="n">
-        <v>17.83347419625069</v>
+        <v>17.76832875033663</v>
       </c>
       <c r="P10" t="n">
-        <v>332.3495130920953</v>
+        <v>332.2618204616733</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23772,28 +23930,28 @@
         <v>0.0466</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0150686687675413</v>
+        <v>0.02029898182669829</v>
       </c>
       <c r="J11" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K11" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L11" t="n">
-        <v>3.747641237050736e-05</v>
+        <v>6.895109145588219e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>13.37295817098424</v>
+        <v>13.3176420006767</v>
       </c>
       <c r="N11" t="n">
-        <v>307.9678249757431</v>
+        <v>305.9420631332731</v>
       </c>
       <c r="O11" t="n">
-        <v>17.54901207976515</v>
+        <v>17.49119959103072</v>
       </c>
       <c r="P11" t="n">
-        <v>332.6024613601435</v>
+        <v>332.5488030523321</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23850,28 +24008,28 @@
         <v>0.0699</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2312097963425987</v>
+        <v>0.2338743559762828</v>
       </c>
       <c r="J12" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K12" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L12" t="n">
-        <v>0.009095609076298472</v>
+        <v>0.009376334002423103</v>
       </c>
       <c r="M12" t="n">
-        <v>13.50530824274907</v>
+        <v>13.46051400132616</v>
       </c>
       <c r="N12" t="n">
-        <v>293.4754923732094</v>
+        <v>292.2718319833621</v>
       </c>
       <c r="O12" t="n">
-        <v>17.13112641869207</v>
+        <v>17.09595952216085</v>
       </c>
       <c r="P12" t="n">
-        <v>325.738477877801</v>
+        <v>325.7108789352268</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23928,28 +24086,28 @@
         <v>0.1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1520370330855572</v>
+        <v>0.1542542095995306</v>
       </c>
       <c r="J13" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K13" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003583898863101065</v>
+        <v>0.003717535236756664</v>
       </c>
       <c r="M13" t="n">
-        <v>14.45520566631769</v>
+        <v>14.40138846730643</v>
       </c>
       <c r="N13" t="n">
-        <v>332.0965088282359</v>
+        <v>330.659254005858</v>
       </c>
       <c r="O13" t="n">
-        <v>18.22351527088657</v>
+        <v>18.1840384405076</v>
       </c>
       <c r="P13" t="n">
-        <v>327.6019358948462</v>
+        <v>327.5791779788756</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24006,28 +24164,28 @@
         <v>0.0646</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1694032508840972</v>
+        <v>-0.1557740972899908</v>
       </c>
       <c r="J14" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K14" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002967186267177291</v>
+        <v>0.002525763987586527</v>
       </c>
       <c r="M14" t="n">
-        <v>15.66557568022069</v>
+        <v>15.64047752618604</v>
       </c>
       <c r="N14" t="n">
-        <v>501.8556744073848</v>
+        <v>500.6894330119529</v>
       </c>
       <c r="O14" t="n">
-        <v>22.40213548765798</v>
+        <v>22.3760906552497</v>
       </c>
       <c r="P14" t="n">
-        <v>336.2688555031003</v>
+        <v>336.1308989438079</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -24084,28 +24242,28 @@
         <v>0.0524</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.01828319539713275</v>
+        <v>-0.009115116960784092</v>
       </c>
       <c r="J15" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K15" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L15" t="n">
-        <v>2.757735608116541e-05</v>
+        <v>6.910221548528384e-06</v>
       </c>
       <c r="M15" t="n">
-        <v>15.25201358670685</v>
+        <v>15.21250074773647</v>
       </c>
       <c r="N15" t="n">
-        <v>623.0733297271543</v>
+        <v>620.6074763641186</v>
       </c>
       <c r="O15" t="n">
-        <v>24.96143685221574</v>
+        <v>24.91199462837367</v>
       </c>
       <c r="P15" t="n">
-        <v>334.6544956564044</v>
+        <v>334.5610258692507</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -24162,28 +24320,28 @@
         <v>0.0417</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.7443066707972861</v>
+        <v>-0.7241332827372641</v>
       </c>
       <c r="J16" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K16" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02671173757006262</v>
+        <v>0.02548934183009366</v>
       </c>
       <c r="M16" t="n">
-        <v>21.94091209429358</v>
+        <v>21.88257708533167</v>
       </c>
       <c r="N16" t="n">
-        <v>1021.645499418923</v>
+        <v>1019.070439520868</v>
       </c>
       <c r="O16" t="n">
-        <v>31.96318975663916</v>
+        <v>31.92288269440696</v>
       </c>
       <c r="P16" t="n">
-        <v>342.8460384624094</v>
+        <v>342.6391590654588</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24240,28 +24398,28 @@
         <v>0.0401</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.8588337816692901</v>
+        <v>-0.8304150184056497</v>
       </c>
       <c r="J17" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K17" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03530706789675919</v>
+        <v>0.03323697904059841</v>
       </c>
       <c r="M17" t="n">
-        <v>21.67624769919444</v>
+        <v>21.65558777618585</v>
       </c>
       <c r="N17" t="n">
-        <v>1041.97005861719</v>
+        <v>1041.531016008909</v>
       </c>
       <c r="O17" t="n">
-        <v>32.27956100409655</v>
+        <v>32.27275965902062</v>
       </c>
       <c r="P17" t="n">
-        <v>347.9504763307284</v>
+        <v>347.6630043490955</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24318,28 +24476,28 @@
         <v>0.0573</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5763862639296711</v>
+        <v>-0.5564290478310248</v>
       </c>
       <c r="J18" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K18" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01074759903537592</v>
+        <v>0.0100995380432739</v>
       </c>
       <c r="M18" t="n">
-        <v>28.9927246593382</v>
+        <v>28.91149314780069</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.192871223378</v>
+        <v>1572.385124034948</v>
       </c>
       <c r="O18" t="n">
-        <v>39.71388763673708</v>
+        <v>39.65331164020161</v>
       </c>
       <c r="P18" t="n">
-        <v>334.9394194419769</v>
+        <v>334.7402781941067</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -24396,28 +24554,28 @@
         <v>0.0388</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.272850152558614</v>
+        <v>-1.248281146073797</v>
       </c>
       <c r="J19" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K19" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L19" t="n">
-        <v>0.07459830690639613</v>
+        <v>0.07234111946901811</v>
       </c>
       <c r="M19" t="n">
-        <v>22.41064747334442</v>
+        <v>22.37769041528642</v>
       </c>
       <c r="N19" t="n">
-        <v>1037.655555920066</v>
+        <v>1035.95889051311</v>
       </c>
       <c r="O19" t="n">
-        <v>32.2126614224914</v>
+        <v>32.18631526772069</v>
       </c>
       <c r="P19" t="n">
-        <v>353.2908355907775</v>
+        <v>353.040591045579</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -24474,28 +24632,28 @@
         <v>0.0785</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.010194037727864</v>
+        <v>-0.9935475763906524</v>
       </c>
       <c r="J20" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K20" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04119357970881943</v>
+        <v>0.0401773333219505</v>
       </c>
       <c r="M20" t="n">
-        <v>23.2667384174217</v>
+        <v>23.21464707291154</v>
       </c>
       <c r="N20" t="n">
-        <v>1210.72626666958</v>
+        <v>1206.922143366774</v>
       </c>
       <c r="O20" t="n">
-        <v>34.79549204522879</v>
+        <v>34.74078501368059</v>
       </c>
       <c r="P20" t="n">
-        <v>344.2792207638188</v>
+        <v>344.1090482103447</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -24552,28 +24710,28 @@
         <v>0.0535</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.4855863956827254</v>
+        <v>-0.4716939806721437</v>
       </c>
       <c r="J21" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K21" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02221093144549469</v>
+        <v>0.02110921667277921</v>
       </c>
       <c r="M21" t="n">
-        <v>16.74863436839446</v>
+        <v>16.74274895507187</v>
       </c>
       <c r="N21" t="n">
-        <v>531.4341641129316</v>
+        <v>530.3534303898236</v>
       </c>
       <c r="O21" t="n">
-        <v>23.05285587758991</v>
+        <v>23.02940360473592</v>
       </c>
       <c r="P21" t="n">
-        <v>344.5880481675869</v>
+        <v>344.4472048064508</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -24624,28 +24782,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-0.9069567045047162</v>
+        <v>-0.8863160761569204</v>
       </c>
       <c r="J22" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K22" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03945209932774918</v>
+        <v>0.03803704415318443</v>
       </c>
       <c r="M22" t="n">
-        <v>23.802988142272</v>
+        <v>23.74954071311186</v>
       </c>
       <c r="N22" t="n">
-        <v>1019.304823263936</v>
+        <v>1016.3957016606</v>
       </c>
       <c r="O22" t="n">
-        <v>31.9265535763561</v>
+        <v>31.88096142936408</v>
       </c>
       <c r="P22" t="n">
-        <v>345.4044593374798</v>
+        <v>345.1971548494957</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -24702,28 +24860,28 @@
         <v>0.096</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.404496936823707</v>
+        <v>-1.392358103235685</v>
       </c>
       <c r="J23" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K23" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L23" t="n">
-        <v>0.08503331011657111</v>
+        <v>0.08432898150755008</v>
       </c>
       <c r="M23" t="n">
-        <v>26.64547317212481</v>
+        <v>26.56462233261291</v>
       </c>
       <c r="N23" t="n">
-        <v>1085.980208781752</v>
+        <v>1081.617446819317</v>
       </c>
       <c r="O23" t="n">
-        <v>32.9542138243617</v>
+        <v>32.88795291317653</v>
       </c>
       <c r="P23" t="n">
-        <v>356.4495791331274</v>
+        <v>356.3256847199028</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -24761,7 +24919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X289"/>
+  <dimension ref="A1:X291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53750,8 +53908,16 @@
           <t>-39.863524319172754,174.81650377818346</t>
         </is>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>-39.8631864091629,174.81570527865878</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>-39.86300400083893,174.81483715588791</t>
+        </is>
+      </c>
       <c r="G289" t="inlineStr">
         <is>
           <t>-39.862731070574384,174.81400956304944</t>
@@ -53762,7 +53928,11 @@
           <t>-39.862432805398385,174.813193314285</t>
         </is>
       </c>
-      <c r="I289" t="inlineStr"/>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>-39.86216962793615,174.81236135515312</t>
+        </is>
+      </c>
       <c r="J289" t="inlineStr">
         <is>
           <t>-39.86189935250696,174.81153257436665</t>
@@ -53836,6 +54006,202 @@
       <c r="X289" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>-39.863912240386036,174.81822967631618</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>-39.863643702891245,174.81740011714479</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>-39.86347803532034,174.81652450067892</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>-39.863120079223286,174.81573497672252</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>-39.86296597780375,174.814854180358</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>-39.862668146774,174.814037737052</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>-39.862403824430864,174.813206290658</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>-39.862108631779,174.8123886669188</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>-39.86192237997503,174.8115222633614</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>-39.861682360992205,174.81067993445095</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>-39.8613750368461,174.80986774351</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>-39.86113569983288,174.80902510922243</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>-39.861018751306744,174.80812766907124</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>-39.86075616546406,174.80729544434914</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>-39.86053701545765,174.80644376844782</t>
+        </is>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>-39.8603993246443,174.80555561253385</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>-39.86004418330572,174.8047648361323</t>
+        </is>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>-39.85985040416498,174.80390179685918</t>
+        </is>
+      </c>
+      <c r="T290" t="inlineStr">
+        <is>
+          <t>-39.85953501246492,174.80309322040674</t>
+        </is>
+      </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>-39.85939605288557,174.80220562896727</t>
+        </is>
+      </c>
+      <c r="V290" t="inlineStr">
+        <is>
+          <t>-39.85911425560678,174.8013820073232</t>
+        </is>
+      </c>
+      <c r="W290" t="inlineStr">
+        <is>
+          <t>-39.858802832974014,174.80057165431057</t>
+        </is>
+      </c>
+      <c r="X290" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>-39.863838350823336,174.81826275738672</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>-39.86354288781248,174.8174452537384</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>-39.86329386082923,174.8166069601513</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>-39.86306813921429,174.8157582319073</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>-39.86281196509293,174.81492313796045</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>-39.86259457956225,174.81407067655365</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>-39.862351861490836,174.81322955729618</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>-39.86209992357079,174.8123925661201</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>-39.86186117837461,174.81154966757558</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>-39.86155974987752,174.81073483685802</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="inlineStr"/>
+      <c r="O291" t="inlineStr"/>
+      <c r="P291" t="inlineStr"/>
+      <c r="Q291" t="inlineStr"/>
+      <c r="R291" t="inlineStr"/>
+      <c r="S291" t="inlineStr"/>
+      <c r="T291" t="inlineStr"/>
+      <c r="U291" t="inlineStr"/>
+      <c r="V291" t="inlineStr"/>
+      <c r="W291" t="inlineStr"/>
+      <c r="X291" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0299/nzd0299.xlsx
+++ b/data/nzd0299/nzd0299.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29460,7 +29460,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>-39.86208028559329,174.81240135924887</t>
+          <t>-39.862080285593294,174.81240135924887</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -34794,7 +34794,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>-39.862043517600604,174.81241782252383</t>
+          <t>-39.86204351760061,174.81241782252383</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">

--- a/data/nzd0299/nzd0299.xlsx
+++ b/data/nzd0299/nzd0299.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X291"/>
+  <dimension ref="A1:X293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20066,6 +20066,98 @@
         </is>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr"/>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="inlineStr"/>
+      <c r="O292" t="inlineStr"/>
+      <c r="P292" t="inlineStr"/>
+      <c r="Q292" t="inlineStr"/>
+      <c r="R292" t="inlineStr"/>
+      <c r="S292" t="inlineStr"/>
+      <c r="T292" t="n">
+        <v>315.92</v>
+      </c>
+      <c r="U292" t="n">
+        <v>340.17</v>
+      </c>
+      <c r="V292" t="n">
+        <v>341.8528571428571</v>
+      </c>
+      <c r="W292" t="inlineStr"/>
+      <c r="X292" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr"/>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="n">
+        <v>341</v>
+      </c>
+      <c r="H293" t="n">
+        <v>334.4345454545455</v>
+      </c>
+      <c r="I293" t="n">
+        <v>325.1145454545455</v>
+      </c>
+      <c r="J293" t="n">
+        <v>326.1188888888889</v>
+      </c>
+      <c r="K293" t="n">
+        <v>334.71</v>
+      </c>
+      <c r="L293" t="n">
+        <v>333.0345454545454</v>
+      </c>
+      <c r="M293" t="n">
+        <v>322.3328571428572</v>
+      </c>
+      <c r="N293" t="n">
+        <v>311.0188888888889</v>
+      </c>
+      <c r="O293" t="inlineStr"/>
+      <c r="P293" t="inlineStr"/>
+      <c r="Q293" t="inlineStr"/>
+      <c r="R293" t="inlineStr"/>
+      <c r="S293" t="inlineStr"/>
+      <c r="T293" t="inlineStr"/>
+      <c r="U293" t="inlineStr"/>
+      <c r="V293" t="inlineStr"/>
+      <c r="W293" t="n">
+        <v>366.4969230769231</v>
+      </c>
+      <c r="X293" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20077,7 +20169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B297"/>
+  <dimension ref="A1:B299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23055,6 +23147,26 @@
       </c>
       <c r="B297" t="n">
         <v>-0.26</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -23231,7 +23343,7 @@
         <v>-0.27205620227557</v>
       </c>
       <c r="J2" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K2" t="n">
         <v>203</v>
@@ -23309,7 +23421,7 @@
         <v>-0.2341110978178839</v>
       </c>
       <c r="J3" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K3" t="n">
         <v>188</v>
@@ -23387,7 +23499,7 @@
         <v>-0.04661721137557383</v>
       </c>
       <c r="J4" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K4" t="n">
         <v>186</v>
@@ -23465,7 +23577,7 @@
         <v>-0.2728608652135289</v>
       </c>
       <c r="J5" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K5" t="n">
         <v>210</v>
@@ -23543,7 +23655,7 @@
         <v>-0.01636901986199047</v>
       </c>
       <c r="J6" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K6" t="n">
         <v>240</v>
@@ -23618,28 +23730,28 @@
         <v>0.0626</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04627870514757947</v>
+        <v>-0.04104842892682793</v>
       </c>
       <c r="J7" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K7" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003638234538183571</v>
+        <v>0.0002882477659618132</v>
       </c>
       <c r="M7" t="n">
-        <v>13.48157985899369</v>
+        <v>13.45211883615947</v>
       </c>
       <c r="N7" t="n">
-        <v>304.869080230352</v>
+        <v>303.7810539449948</v>
       </c>
       <c r="O7" t="n">
-        <v>17.46050057215864</v>
+        <v>17.42931593451088</v>
       </c>
       <c r="P7" t="n">
-        <v>335.4407977786678</v>
+        <v>335.3865531224999</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23696,28 +23808,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01862950243019246</v>
+        <v>0.01947675663237295</v>
       </c>
       <c r="J8" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K8" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L8" t="n">
-        <v>6.850438016992033e-05</v>
+        <v>7.543619553540548e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>12.28334536910218</v>
+        <v>12.23572837634763</v>
       </c>
       <c r="N8" t="n">
-        <v>260.2298491298367</v>
+        <v>259.1413838044422</v>
       </c>
       <c r="O8" t="n">
-        <v>16.13164124104664</v>
+        <v>16.09786892120948</v>
       </c>
       <c r="P8" t="n">
-        <v>332.8708531519825</v>
+        <v>332.861983216833</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23774,28 +23886,28 @@
         <v>0.0641</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0549465414027553</v>
+        <v>-0.06050799829024801</v>
       </c>
       <c r="J9" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K9" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0005382785866681061</v>
+        <v>0.0006570475859023484</v>
       </c>
       <c r="M9" t="n">
-        <v>12.89475314371866</v>
+        <v>12.87611094920449</v>
       </c>
       <c r="N9" t="n">
-        <v>288.4106960808447</v>
+        <v>287.4184305701833</v>
       </c>
       <c r="O9" t="n">
-        <v>16.98265868705029</v>
+        <v>16.95341943591862</v>
       </c>
       <c r="P9" t="n">
-        <v>333.7118196712632</v>
+        <v>333.7700069851665</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23852,28 +23964,28 @@
         <v>0.0574</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1325300884035885</v>
+        <v>0.1249465245178709</v>
       </c>
       <c r="J10" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K10" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002759190036014436</v>
+        <v>0.002469242258497761</v>
       </c>
       <c r="M10" t="n">
-        <v>13.45098101378774</v>
+        <v>13.43930088425737</v>
       </c>
       <c r="N10" t="n">
-        <v>315.7135065800393</v>
+        <v>314.7743470334505</v>
       </c>
       <c r="O10" t="n">
-        <v>17.76832875033663</v>
+        <v>17.74188115824955</v>
       </c>
       <c r="P10" t="n">
-        <v>332.2618204616733</v>
+        <v>332.3422982591504</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23930,28 +24042,28 @@
         <v>0.0466</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02029898182669829</v>
+        <v>0.02159092291290813</v>
       </c>
       <c r="J11" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K11" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L11" t="n">
-        <v>6.895109145588219e-05</v>
+        <v>7.861131788811093e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>13.3176420006767</v>
+        <v>13.26847173245395</v>
       </c>
       <c r="N11" t="n">
-        <v>305.9420631332731</v>
+        <v>304.6940527507183</v>
       </c>
       <c r="O11" t="n">
-        <v>17.49119959103072</v>
+        <v>17.4554877545922</v>
       </c>
       <c r="P11" t="n">
-        <v>332.5488030523321</v>
+        <v>332.5354159968027</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24008,28 +24120,28 @@
         <v>0.0699</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2338743559762828</v>
+        <v>0.2350012607128956</v>
       </c>
       <c r="J12" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K12" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L12" t="n">
-        <v>0.009376334002423103</v>
+        <v>0.009541455280080546</v>
       </c>
       <c r="M12" t="n">
-        <v>13.46051400132616</v>
+        <v>13.40871742395198</v>
       </c>
       <c r="N12" t="n">
-        <v>292.2718319833621</v>
+        <v>291.0413810339452</v>
       </c>
       <c r="O12" t="n">
-        <v>17.09595952216085</v>
+        <v>17.05993496570093</v>
       </c>
       <c r="P12" t="n">
-        <v>325.7108789352268</v>
+        <v>325.6991145364894</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -24086,28 +24198,28 @@
         <v>0.1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1542542095995306</v>
+        <v>0.1467411966016555</v>
       </c>
       <c r="J13" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K13" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003717535236756664</v>
+        <v>0.003388620300905143</v>
       </c>
       <c r="M13" t="n">
-        <v>14.40138846730643</v>
+        <v>14.3846201875346</v>
       </c>
       <c r="N13" t="n">
-        <v>330.659254005858</v>
+        <v>329.568109569494</v>
       </c>
       <c r="O13" t="n">
-        <v>18.1840384405076</v>
+        <v>18.15401083974266</v>
       </c>
       <c r="P13" t="n">
-        <v>327.5791779788756</v>
+        <v>327.6569358338713</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24164,28 +24276,28 @@
         <v>0.0646</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1557740972899908</v>
+        <v>-0.1740189602206551</v>
       </c>
       <c r="J14" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K14" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002525763987586527</v>
+        <v>0.003164521997224945</v>
       </c>
       <c r="M14" t="n">
-        <v>15.64047752618604</v>
+        <v>15.69878456746121</v>
       </c>
       <c r="N14" t="n">
-        <v>500.6894330119529</v>
+        <v>500.4197700906014</v>
       </c>
       <c r="O14" t="n">
-        <v>22.3760906552497</v>
+        <v>22.37006415034613</v>
       </c>
       <c r="P14" t="n">
-        <v>336.1308989438079</v>
+        <v>336.3170745990161</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -24245,7 +24357,7 @@
         <v>-0.009115116960784092</v>
       </c>
       <c r="J15" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K15" t="n">
         <v>211</v>
@@ -24323,7 +24435,7 @@
         <v>-0.7241332827372641</v>
       </c>
       <c r="J16" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K16" t="n">
         <v>211</v>
@@ -24401,7 +24513,7 @@
         <v>-0.8304150184056497</v>
       </c>
       <c r="J17" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K17" t="n">
         <v>208</v>
@@ -24479,7 +24591,7 @@
         <v>-0.5564290478310248</v>
       </c>
       <c r="J18" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K18" t="n">
         <v>223</v>
@@ -24557,7 +24669,7 @@
         <v>-1.248281146073797</v>
       </c>
       <c r="J19" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K19" t="n">
         <v>203</v>
@@ -24632,28 +24744,28 @@
         <v>0.0785</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.9935475763906524</v>
+        <v>-0.9961125188074427</v>
       </c>
       <c r="J20" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K20" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0401773333219505</v>
+        <v>0.04071140296990627</v>
       </c>
       <c r="M20" t="n">
-        <v>23.21464707291154</v>
+        <v>23.12885338042893</v>
       </c>
       <c r="N20" t="n">
-        <v>1206.922143366774</v>
+        <v>1201.548910113417</v>
       </c>
       <c r="O20" t="n">
-        <v>34.74078501368059</v>
+        <v>34.6633655335632</v>
       </c>
       <c r="P20" t="n">
-        <v>344.1090482103447</v>
+        <v>344.1354455385679</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -24710,28 +24822,28 @@
         <v>0.0535</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.4716939806721437</v>
+        <v>-0.4653241946335699</v>
       </c>
       <c r="J21" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K21" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02110921667277921</v>
+        <v>0.0207143626148637</v>
       </c>
       <c r="M21" t="n">
-        <v>16.74274895507187</v>
+        <v>16.70113151284068</v>
       </c>
       <c r="N21" t="n">
-        <v>530.3534303898236</v>
+        <v>528.345535958666</v>
       </c>
       <c r="O21" t="n">
-        <v>23.02940360473592</v>
+        <v>22.98576811765632</v>
       </c>
       <c r="P21" t="n">
-        <v>344.4472048064508</v>
+        <v>344.3821979663671</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -24782,28 +24894,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-0.8863160761569204</v>
+        <v>-0.8674733358989273</v>
       </c>
       <c r="J22" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K22" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03803704415318443</v>
+        <v>0.03679347508950848</v>
       </c>
       <c r="M22" t="n">
-        <v>23.74954071311186</v>
+        <v>23.69144737752627</v>
       </c>
       <c r="N22" t="n">
-        <v>1016.3957016606</v>
+        <v>1013.16914829598</v>
       </c>
       <c r="O22" t="n">
-        <v>31.88096142936408</v>
+        <v>31.83031806777903</v>
       </c>
       <c r="P22" t="n">
-        <v>345.1971548494957</v>
+        <v>345.0067028496364</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -24860,28 +24972,28 @@
         <v>0.096</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.392358103235685</v>
+        <v>-1.350686409208185</v>
       </c>
       <c r="J23" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K23" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L23" t="n">
-        <v>0.08432898150755008</v>
+        <v>0.07976415522127789</v>
       </c>
       <c r="M23" t="n">
-        <v>26.56462233261291</v>
+        <v>26.59604412207293</v>
       </c>
       <c r="N23" t="n">
-        <v>1081.617446819317</v>
+        <v>1086.209040535383</v>
       </c>
       <c r="O23" t="n">
-        <v>32.88795291317653</v>
+        <v>32.95768560647702</v>
       </c>
       <c r="P23" t="n">
-        <v>356.3256847199028</v>
+        <v>355.8970055701935</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -24919,7 +25031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X291"/>
+  <dimension ref="A1:X293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54205,6 +54317,122 @@
         </is>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr"/>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="inlineStr"/>
+      <c r="O292" t="inlineStr"/>
+      <c r="P292" t="inlineStr"/>
+      <c r="Q292" t="inlineStr"/>
+      <c r="R292" t="inlineStr"/>
+      <c r="S292" t="inlineStr"/>
+      <c r="T292" t="inlineStr">
+        <is>
+          <t>-39.85934675647152,174.80317752987966</t>
+        </is>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>-39.859319848110744,174.80223975761865</t>
+        </is>
+      </c>
+      <c r="V292" t="inlineStr">
+        <is>
+          <t>-39.859100790558145,174.8013880378062</t>
+        </is>
+      </c>
+      <c r="W292" t="inlineStr"/>
+      <c r="X292" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr"/>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>-39.8625942389733,174.8140708290512</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>-39.86230496092797,174.81325055720168</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>-39.861992228182366,174.81244078789763</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>-39.861767403395696,174.8115916570612</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>-39.861607176540716,174.81071360032425</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>-39.861359532451516,174.80987468613242</t>
+        </is>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>-39.861035032581924,174.80907018713205</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>-39.860705318918754,174.8082680237873</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr"/>
+      <c r="P293" t="inlineStr"/>
+      <c r="Q293" t="inlineStr"/>
+      <c r="R293" t="inlineStr"/>
+      <c r="S293" t="inlineStr"/>
+      <c r="T293" t="inlineStr"/>
+      <c r="U293" t="inlineStr"/>
+      <c r="V293" t="inlineStr"/>
+      <c r="W293" t="inlineStr">
+        <is>
+          <t>-39.85907723460756,174.80044875791148</t>
+        </is>
+      </c>
+      <c r="X293" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0299/nzd0299.xlsx
+++ b/data/nzd0299/nzd0299.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X293"/>
+  <dimension ref="A1:X295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20141,8 +20141,12 @@
       <c r="N293" t="n">
         <v>311.0188888888889</v>
       </c>
-      <c r="O293" t="inlineStr"/>
-      <c r="P293" t="inlineStr"/>
+      <c r="O293" t="n">
+        <v>300.68</v>
+      </c>
+      <c r="P293" t="n">
+        <v>297.5657142857143</v>
+      </c>
       <c r="Q293" t="inlineStr"/>
       <c r="R293" t="inlineStr"/>
       <c r="S293" t="inlineStr"/>
@@ -20153,6 +20157,132 @@
         <v>366.4969230769231</v>
       </c>
       <c r="X293" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>363.46</v>
+      </c>
+      <c r="C294" t="n">
+        <v>365.59</v>
+      </c>
+      <c r="D294" t="n">
+        <v>363.8642857142857</v>
+      </c>
+      <c r="E294" t="n">
+        <v>356.34</v>
+      </c>
+      <c r="F294" t="n">
+        <v>355.67</v>
+      </c>
+      <c r="G294" t="n">
+        <v>353.64</v>
+      </c>
+      <c r="H294" t="n">
+        <v>345.3436363636364</v>
+      </c>
+      <c r="I294" t="n">
+        <v>338.4936363636364</v>
+      </c>
+      <c r="J294" t="n">
+        <v>337.82</v>
+      </c>
+      <c r="K294" t="n">
+        <v>341.21</v>
+      </c>
+      <c r="L294" t="n">
+        <v>333.1636363636364</v>
+      </c>
+      <c r="M294" t="n">
+        <v>327.2271428571428</v>
+      </c>
+      <c r="N294" t="n">
+        <v>327.25</v>
+      </c>
+      <c r="O294" t="inlineStr"/>
+      <c r="P294" t="n">
+        <v>272.4942857142857</v>
+      </c>
+      <c r="Q294" t="inlineStr"/>
+      <c r="R294" t="inlineStr"/>
+      <c r="S294" t="inlineStr"/>
+      <c r="T294" t="n">
+        <v>319.95</v>
+      </c>
+      <c r="U294" t="n">
+        <v>345.93</v>
+      </c>
+      <c r="V294" t="inlineStr"/>
+      <c r="W294" t="inlineStr"/>
+      <c r="X294" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>376.8466666666667</v>
+      </c>
+      <c r="C295" t="n">
+        <v>369.77</v>
+      </c>
+      <c r="D295" t="n">
+        <v>373.4342857142857</v>
+      </c>
+      <c r="E295" t="n">
+        <v>362.33</v>
+      </c>
+      <c r="F295" t="n">
+        <v>359.4366666666667</v>
+      </c>
+      <c r="G295" t="n">
+        <v>357.37</v>
+      </c>
+      <c r="H295" t="n">
+        <v>347.7618181818182</v>
+      </c>
+      <c r="I295" t="n">
+        <v>345.7318181818182</v>
+      </c>
+      <c r="J295" t="n">
+        <v>343.4766666666667</v>
+      </c>
+      <c r="K295" t="n">
+        <v>347.7</v>
+      </c>
+      <c r="L295" t="n">
+        <v>339.9018181818182</v>
+      </c>
+      <c r="M295" t="n">
+        <v>335.6171428571428</v>
+      </c>
+      <c r="N295" t="n">
+        <v>343.4466666666667</v>
+      </c>
+      <c r="O295" t="inlineStr"/>
+      <c r="P295" t="inlineStr"/>
+      <c r="Q295" t="inlineStr"/>
+      <c r="R295" t="inlineStr"/>
+      <c r="S295" t="inlineStr"/>
+      <c r="T295" t="inlineStr"/>
+      <c r="U295" t="inlineStr"/>
+      <c r="V295" t="inlineStr"/>
+      <c r="W295" t="inlineStr"/>
+      <c r="X295" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -20169,7 +20299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B299"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23167,6 +23297,26 @@
       </c>
       <c r="B299" t="n">
         <v>0.85</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1.11</v>
       </c>
     </row>
   </sheetData>
@@ -23340,28 +23490,28 @@
         <v>0.0524</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.27205620227557</v>
+        <v>-0.229051063033149</v>
       </c>
       <c r="J2" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K2" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009537204216722217</v>
+        <v>0.006807189844090011</v>
       </c>
       <c r="M2" t="n">
-        <v>12.47843160749771</v>
+        <v>12.54027665408836</v>
       </c>
       <c r="N2" t="n">
-        <v>403.904079596594</v>
+        <v>405.6850791956154</v>
       </c>
       <c r="O2" t="n">
-        <v>20.09736499137621</v>
+        <v>20.14162553508568</v>
       </c>
       <c r="P2" t="n">
-        <v>353.4813470692843</v>
+        <v>353.0415456512849</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23418,28 +23568,28 @@
         <v>0.0573</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2341110978178839</v>
+        <v>-0.187191809030496</v>
       </c>
       <c r="J3" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K3" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008922902561252499</v>
+        <v>0.00572288450809999</v>
       </c>
       <c r="M3" t="n">
-        <v>11.62768269240089</v>
+        <v>11.74106913894564</v>
       </c>
       <c r="N3" t="n">
-        <v>330.8614106650977</v>
+        <v>333.693781241119</v>
       </c>
       <c r="O3" t="n">
-        <v>18.18959622050741</v>
+        <v>18.26728718888273</v>
       </c>
       <c r="P3" t="n">
-        <v>348.8752197677302</v>
+        <v>348.4034986808356</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23496,28 +23646,28 @@
         <v>0.0386</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04661721137557383</v>
+        <v>0.002691559912282423</v>
       </c>
       <c r="J4" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K4" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00032046893807125</v>
+        <v>1.068663371128764e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>13.45334110596035</v>
+        <v>13.56913514408977</v>
       </c>
       <c r="N4" t="n">
-        <v>380.7212044644639</v>
+        <v>383.9931266566448</v>
       </c>
       <c r="O4" t="n">
-        <v>19.51207842502853</v>
+        <v>19.59574256456348</v>
       </c>
       <c r="P4" t="n">
-        <v>343.6525018575052</v>
+        <v>343.1692359955333</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23574,28 +23724,28 @@
         <v>0.0604</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2728608652135289</v>
+        <v>-0.2319920006523625</v>
       </c>
       <c r="J5" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K5" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01172581612828005</v>
+        <v>0.008504181138944022</v>
       </c>
       <c r="M5" t="n">
-        <v>12.41639726080557</v>
+        <v>12.49676955053281</v>
       </c>
       <c r="N5" t="n">
-        <v>340.1985324816127</v>
+        <v>342.5686735347696</v>
       </c>
       <c r="O5" t="n">
-        <v>18.44447159670379</v>
+        <v>18.50861079429706</v>
       </c>
       <c r="P5" t="n">
-        <v>341.8370099370345</v>
+        <v>341.4218450079195</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23652,28 +23802,28 @@
         <v>0.0506</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01636901986199047</v>
+        <v>0.01771117606584917</v>
       </c>
       <c r="J6" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K6" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L6" t="n">
-        <v>5.484053025939239e-05</v>
+        <v>6.416227166405886e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>12.17424945727726</v>
+        <v>12.23809097512516</v>
       </c>
       <c r="N6" t="n">
-        <v>258.3071263906059</v>
+        <v>260.2467304047128</v>
       </c>
       <c r="O6" t="n">
-        <v>16.07193598763403</v>
+        <v>16.13216446744555</v>
       </c>
       <c r="P6" t="n">
-        <v>335.5856296424486</v>
+        <v>335.2366639491859</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23730,28 +23880,28 @@
         <v>0.0626</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04104842892682793</v>
+        <v>-0.00870862290342065</v>
       </c>
       <c r="J7" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K7" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002882477659618132</v>
+        <v>1.301486442406574e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>13.45211883615947</v>
+        <v>13.50459321025985</v>
       </c>
       <c r="N7" t="n">
-        <v>303.7810539449948</v>
+        <v>304.9205278970829</v>
       </c>
       <c r="O7" t="n">
-        <v>17.42931593451088</v>
+        <v>17.46197376865178</v>
       </c>
       <c r="P7" t="n">
-        <v>335.3865531224999</v>
+        <v>335.0499341154612</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23808,28 +23958,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01947675663237295</v>
+        <v>0.03965525644229925</v>
       </c>
       <c r="J8" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K8" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L8" t="n">
-        <v>7.543619553540548e-05</v>
+        <v>0.000315539525812869</v>
       </c>
       <c r="M8" t="n">
-        <v>12.23572837634763</v>
+        <v>12.22948940531189</v>
       </c>
       <c r="N8" t="n">
-        <v>259.1413838044422</v>
+        <v>258.4116519531252</v>
       </c>
       <c r="O8" t="n">
-        <v>16.09786892120948</v>
+        <v>16.0751874624567</v>
       </c>
       <c r="P8" t="n">
-        <v>332.861983216833</v>
+        <v>332.6499635003064</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23886,28 +24036,28 @@
         <v>0.0641</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.06050799829024801</v>
+        <v>-0.04547312227936273</v>
       </c>
       <c r="J9" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K9" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0006570475859023484</v>
+        <v>0.0003755006972337993</v>
       </c>
       <c r="M9" t="n">
-        <v>12.87611094920449</v>
+        <v>12.83593135645525</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4184305701833</v>
+        <v>285.9342611427992</v>
       </c>
       <c r="O9" t="n">
-        <v>16.95341943591862</v>
+        <v>16.9095908035292</v>
       </c>
       <c r="P9" t="n">
-        <v>333.7700069851665</v>
+        <v>333.6120759183102</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23964,28 +24114,28 @@
         <v>0.0574</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1249465245178709</v>
+        <v>0.1329921195355987</v>
       </c>
       <c r="J10" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K10" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002469242258497761</v>
+        <v>0.002836944022114984</v>
       </c>
       <c r="M10" t="n">
-        <v>13.43930088425737</v>
+        <v>13.36494676135166</v>
       </c>
       <c r="N10" t="n">
-        <v>314.7743470334505</v>
+        <v>312.460324710712</v>
       </c>
       <c r="O10" t="n">
-        <v>17.74188115824955</v>
+        <v>17.67654730739892</v>
       </c>
       <c r="P10" t="n">
-        <v>332.3422982591504</v>
+        <v>332.2565792936341</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24042,28 +24192,28 @@
         <v>0.0466</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02159092291290813</v>
+        <v>0.03915724457113331</v>
       </c>
       <c r="J11" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K11" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L11" t="n">
-        <v>7.861131788811093e-05</v>
+        <v>0.0002615502045371088</v>
       </c>
       <c r="M11" t="n">
-        <v>13.26847173245395</v>
+        <v>13.23549530984433</v>
       </c>
       <c r="N11" t="n">
-        <v>304.6940527507183</v>
+        <v>303.3233514090508</v>
       </c>
       <c r="O11" t="n">
-        <v>17.4554877545922</v>
+        <v>17.41618073542678</v>
       </c>
       <c r="P11" t="n">
-        <v>332.5354159968027</v>
+        <v>332.3527220712215</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24120,28 +24270,28 @@
         <v>0.0699</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2350012607128956</v>
+        <v>0.2427830085817354</v>
       </c>
       <c r="J12" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K12" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L12" t="n">
-        <v>0.009541455280080546</v>
+        <v>0.01032846969256251</v>
       </c>
       <c r="M12" t="n">
-        <v>13.40871742395198</v>
+        <v>13.33183978782102</v>
       </c>
       <c r="N12" t="n">
-        <v>291.0413810339452</v>
+        <v>288.8834509057838</v>
       </c>
       <c r="O12" t="n">
-        <v>17.05993496570093</v>
+        <v>16.9965717397887</v>
       </c>
       <c r="P12" t="n">
-        <v>325.6991145364894</v>
+        <v>325.6175430045179</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -24198,28 +24348,28 @@
         <v>0.1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1467411966016555</v>
+        <v>0.1468004193635902</v>
       </c>
       <c r="J13" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K13" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003388620300905143</v>
+        <v>0.00344364230976546</v>
       </c>
       <c r="M13" t="n">
-        <v>14.3846201875346</v>
+        <v>14.29554456046194</v>
       </c>
       <c r="N13" t="n">
-        <v>329.568109569494</v>
+        <v>326.8432508467928</v>
       </c>
       <c r="O13" t="n">
-        <v>18.15401083974266</v>
+        <v>18.07880667651471</v>
       </c>
       <c r="P13" t="n">
-        <v>327.6569358338713</v>
+        <v>327.6562377731971</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24276,28 +24426,28 @@
         <v>0.0646</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1740189602206551</v>
+        <v>-0.1681287160979743</v>
       </c>
       <c r="J14" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K14" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003164521997224945</v>
+        <v>0.0030008753067714</v>
       </c>
       <c r="M14" t="n">
-        <v>15.69878456746121</v>
+        <v>15.61946142814912</v>
       </c>
       <c r="N14" t="n">
-        <v>500.4197700906014</v>
+        <v>496.5909304750577</v>
       </c>
       <c r="O14" t="n">
-        <v>22.37006415034613</v>
+        <v>22.284320282994</v>
       </c>
       <c r="P14" t="n">
-        <v>336.3170745990161</v>
+        <v>336.256600993175</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -24354,28 +24504,28 @@
         <v>0.0524</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.009115116960784092</v>
+        <v>-0.03939461095552785</v>
       </c>
       <c r="J15" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K15" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L15" t="n">
-        <v>6.910221548528384e-06</v>
+        <v>0.0001291219000387756</v>
       </c>
       <c r="M15" t="n">
-        <v>15.21250074773647</v>
+        <v>15.34814482663156</v>
       </c>
       <c r="N15" t="n">
-        <v>620.6074763641186</v>
+        <v>622.9483280916263</v>
       </c>
       <c r="O15" t="n">
-        <v>24.91199462837367</v>
+        <v>24.9589328315861</v>
       </c>
       <c r="P15" t="n">
-        <v>334.5610258692507</v>
+        <v>334.8721948301325</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -24432,28 +24582,28 @@
         <v>0.0417</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.7241332827372641</v>
+        <v>-0.7952740853921245</v>
       </c>
       <c r="J16" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K16" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02548934183009366</v>
+        <v>0.03067397625742796</v>
       </c>
       <c r="M16" t="n">
-        <v>21.88257708533167</v>
+        <v>22.24050380708603</v>
       </c>
       <c r="N16" t="n">
-        <v>1019.070439520868</v>
+        <v>1025.003410974666</v>
       </c>
       <c r="O16" t="n">
-        <v>31.92288269440696</v>
+        <v>32.01567445759446</v>
       </c>
       <c r="P16" t="n">
-        <v>342.6391590654588</v>
+        <v>343.3754213715455</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24513,7 +24663,7 @@
         <v>-0.8304150184056497</v>
       </c>
       <c r="J17" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K17" t="n">
         <v>208</v>
@@ -24591,7 +24741,7 @@
         <v>-0.5564290478310248</v>
       </c>
       <c r="J18" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K18" t="n">
         <v>223</v>
@@ -24669,7 +24819,7 @@
         <v>-1.248281146073797</v>
       </c>
       <c r="J19" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K19" t="n">
         <v>203</v>
@@ -24744,28 +24894,28 @@
         <v>0.0785</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.9961125188074427</v>
+        <v>-0.9951106035178298</v>
       </c>
       <c r="J20" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K20" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04071140296990627</v>
+        <v>0.04096925095917292</v>
       </c>
       <c r="M20" t="n">
-        <v>23.12885338042893</v>
+        <v>23.02880495912141</v>
       </c>
       <c r="N20" t="n">
-        <v>1201.548910113417</v>
+        <v>1196.19085002423</v>
       </c>
       <c r="O20" t="n">
-        <v>34.6633655335632</v>
+        <v>34.58599210698213</v>
       </c>
       <c r="P20" t="n">
-        <v>344.1354455385679</v>
+        <v>344.1250999867298</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -24822,28 +24972,28 @@
         <v>0.0535</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.4653241946335699</v>
+        <v>-0.4543093174362923</v>
       </c>
       <c r="J21" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K21" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0207143626148637</v>
+        <v>0.01989897142821695</v>
       </c>
       <c r="M21" t="n">
-        <v>16.70113151284068</v>
+        <v>16.68104417322131</v>
       </c>
       <c r="N21" t="n">
-        <v>528.345535958666</v>
+        <v>526.8570789097639</v>
       </c>
       <c r="O21" t="n">
-        <v>22.98576811765632</v>
+        <v>22.95336748518099</v>
       </c>
       <c r="P21" t="n">
-        <v>344.3821979663671</v>
+        <v>344.2694173193036</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -24897,7 +25047,7 @@
         <v>-0.8674733358989273</v>
       </c>
       <c r="J22" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K22" t="n">
         <v>203</v>
@@ -24975,7 +25125,7 @@
         <v>-1.350686409208185</v>
       </c>
       <c r="J23" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K23" t="n">
         <v>210</v>
@@ -25031,7 +25181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X293"/>
+  <dimension ref="A1:X295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54414,8 +54564,16 @@
           <t>-39.860705318918754,174.8082680237873</t>
         </is>
       </c>
-      <c r="O293" t="inlineStr"/>
-      <c r="P293" t="inlineStr"/>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>-39.860383907220225,174.8074621437961</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>-39.86012400954944,174.806628718079</t>
+        </is>
+      </c>
       <c r="Q293" t="inlineStr"/>
       <c r="R293" t="inlineStr"/>
       <c r="S293" t="inlineStr"/>
@@ -54433,6 +54591,190 @@
         </is>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>-39.8639523451015,174.81821172101766</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>-39.863737110090774,174.81735829706227</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>-39.86348904370079,174.81651957194063</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>-39.863191603163024,174.81570295313412</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>-39.86295252451729,174.81486020394075</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>-39.86270186507648,174.81402263975772</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>-39.862397848654275,174.81320896634045</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>-39.86210614703694,174.812389779491</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>-39.86186703457995,174.8115470453472</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>-39.86166252183431,174.81068881797816</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>-39.86136063161481,174.8098741939446</t>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>-39.86107670561454,174.80905152633085</t>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>-39.86084352057787,174.80820613738015</t>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr"/>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>-39.85991053669418,174.80672431322506</t>
+        </is>
+      </c>
+      <c r="Q294" t="inlineStr"/>
+      <c r="R294" t="inlineStr"/>
+      <c r="S294" t="inlineStr"/>
+      <c r="T294" t="inlineStr">
+        <is>
+          <t>-39.85938106998338,174.80316216278587</t>
+        </is>
+      </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>-39.859368891631696,174.8022177932659</t>
+        </is>
+      </c>
+      <c r="V294" t="inlineStr"/>
+      <c r="W294" t="inlineStr"/>
+      <c r="X294" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>-39.864066329898,174.8181606887217</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>-39.86377270189149,174.81734236194285</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>-39.863570530038004,174.816483088338</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>-39.86324260653883,174.8156801172266</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>-39.8629845966976,174.81484584391907</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>-39.862733624991044,174.81400841931352</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>-39.86241843876509,174.81319974701825</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>-39.86216777792587,174.81236218351825</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>-39.86191519926507,174.81152547866736</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>-39.86171778197641,174.8106640737205</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>-39.86141800483922,174.80984850310637</t>
+        </is>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>-39.861148143354896,174.8090195371134</t>
+        </is>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>-39.86098142892531,174.80814438206528</t>
+        </is>
+      </c>
+      <c r="O295" t="inlineStr"/>
+      <c r="P295" t="inlineStr"/>
+      <c r="Q295" t="inlineStr"/>
+      <c r="R295" t="inlineStr"/>
+      <c r="S295" t="inlineStr"/>
+      <c r="T295" t="inlineStr"/>
+      <c r="U295" t="inlineStr"/>
+      <c r="V295" t="inlineStr"/>
+      <c r="W295" t="inlineStr"/>
+      <c r="X295" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0299/nzd0299.xlsx
+++ b/data/nzd0299/nzd0299.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X295"/>
+  <dimension ref="A1:X296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20141,12 +20141,8 @@
       <c r="N293" t="n">
         <v>311.0188888888889</v>
       </c>
-      <c r="O293" t="n">
-        <v>300.68</v>
-      </c>
-      <c r="P293" t="n">
-        <v>297.5657142857143</v>
-      </c>
+      <c r="O293" t="inlineStr"/>
+      <c r="P293" t="inlineStr"/>
       <c r="Q293" t="inlineStr"/>
       <c r="R293" t="inlineStr"/>
       <c r="S293" t="inlineStr"/>
@@ -20208,9 +20204,7 @@
         <v>327.25</v>
       </c>
       <c r="O294" t="inlineStr"/>
-      <c r="P294" t="n">
-        <v>272.4942857142857</v>
-      </c>
+      <c r="P294" t="inlineStr"/>
       <c r="Q294" t="inlineStr"/>
       <c r="R294" t="inlineStr"/>
       <c r="S294" t="inlineStr"/>
@@ -20283,6 +20277,80 @@
       <c r="V295" t="inlineStr"/>
       <c r="W295" t="inlineStr"/>
       <c r="X295" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:57+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>365.6555555555556</v>
+      </c>
+      <c r="C296" t="n">
+        <v>364.88</v>
+      </c>
+      <c r="D296" t="n">
+        <v>365.4971428571428</v>
+      </c>
+      <c r="E296" t="n">
+        <v>362.42</v>
+      </c>
+      <c r="F296" t="n">
+        <v>355.0455555555556</v>
+      </c>
+      <c r="G296" t="n">
+        <v>349.22</v>
+      </c>
+      <c r="H296" t="n">
+        <v>346.7745454545454</v>
+      </c>
+      <c r="I296" t="n">
+        <v>341.7245454545454</v>
+      </c>
+      <c r="J296" t="n">
+        <v>342.8355555555555</v>
+      </c>
+      <c r="K296" t="n">
+        <v>340.34</v>
+      </c>
+      <c r="L296" t="n">
+        <v>338.3845454545454</v>
+      </c>
+      <c r="M296" t="n">
+        <v>341.0685714285714</v>
+      </c>
+      <c r="N296" t="n">
+        <v>350.6255555555555</v>
+      </c>
+      <c r="O296" t="n">
+        <v>356.48</v>
+      </c>
+      <c r="P296" t="n">
+        <v>355.2671428571429</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>367.6933333333333</v>
+      </c>
+      <c r="R296" t="n">
+        <v>373.29</v>
+      </c>
+      <c r="S296" t="n">
+        <v>380.3171428571428</v>
+      </c>
+      <c r="T296" t="inlineStr"/>
+      <c r="U296" t="inlineStr"/>
+      <c r="V296" t="n">
+        <v>385.314761904762</v>
+      </c>
+      <c r="W296" t="n">
+        <v>385.48</v>
+      </c>
+      <c r="X296" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -20299,7 +20367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23317,6 +23385,16 @@
       </c>
       <c r="B301" t="n">
         <v>1.11</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -23490,28 +23568,28 @@
         <v>0.0524</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.229051063033149</v>
+        <v>-0.2122812254504449</v>
       </c>
       <c r="J2" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K2" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006807189844090011</v>
+        <v>0.005882172952927478</v>
       </c>
       <c r="M2" t="n">
-        <v>12.54027665408836</v>
+        <v>12.551260483983</v>
       </c>
       <c r="N2" t="n">
-        <v>405.6850791956154</v>
+        <v>405.3494119571405</v>
       </c>
       <c r="O2" t="n">
-        <v>20.14162553508568</v>
+        <v>20.13329113575673</v>
       </c>
       <c r="P2" t="n">
-        <v>353.0415456512849</v>
+        <v>352.8691178701063</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23568,28 +23646,28 @@
         <v>0.0573</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.187191809030496</v>
+        <v>-0.1671273813138322</v>
       </c>
       <c r="J3" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K3" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00572288450809999</v>
+        <v>0.004578254867033227</v>
       </c>
       <c r="M3" t="n">
-        <v>11.74106913894564</v>
+        <v>11.78131384013139</v>
       </c>
       <c r="N3" t="n">
-        <v>333.693781241119</v>
+        <v>334.2797522140279</v>
       </c>
       <c r="O3" t="n">
-        <v>18.26728718888273</v>
+        <v>18.28331896057244</v>
       </c>
       <c r="P3" t="n">
-        <v>348.4034986808356</v>
+        <v>348.2005695144778</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23646,28 +23724,28 @@
         <v>0.0386</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002691559912282423</v>
+        <v>0.02355844515457325</v>
       </c>
       <c r="J4" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K4" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L4" t="n">
-        <v>1.068663371128764e-06</v>
+        <v>8.209353823862564e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>13.56913514408977</v>
+        <v>13.60626633019195</v>
       </c>
       <c r="N4" t="n">
-        <v>383.9931266566448</v>
+        <v>384.5442868941112</v>
       </c>
       <c r="O4" t="n">
-        <v>19.59574256456348</v>
+        <v>19.60980078670131</v>
       </c>
       <c r="P4" t="n">
-        <v>343.1692359955333</v>
+        <v>342.9634961166786</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23724,28 +23802,28 @@
         <v>0.0604</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2319920006523625</v>
+        <v>-0.2095240603584058</v>
       </c>
       <c r="J5" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K5" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008504181138944022</v>
+        <v>0.006936447433399273</v>
       </c>
       <c r="M5" t="n">
-        <v>12.49676955053281</v>
+        <v>12.54893940178209</v>
       </c>
       <c r="N5" t="n">
-        <v>342.5686735347696</v>
+        <v>344.3223174680681</v>
       </c>
       <c r="O5" t="n">
-        <v>18.50861079429706</v>
+        <v>18.55592405319843</v>
       </c>
       <c r="P5" t="n">
-        <v>341.4218450079195</v>
+        <v>341.1922202694089</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23802,28 +23880,28 @@
         <v>0.0506</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01771117606584917</v>
+        <v>0.0324341641311213</v>
       </c>
       <c r="J6" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K6" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L6" t="n">
-        <v>6.416227166405886e-05</v>
+        <v>0.0002155094492994891</v>
       </c>
       <c r="M6" t="n">
-        <v>12.23809097512516</v>
+        <v>12.2605168400021</v>
       </c>
       <c r="N6" t="n">
-        <v>260.2467304047128</v>
+        <v>260.6995886220936</v>
       </c>
       <c r="O6" t="n">
-        <v>16.13216446744555</v>
+        <v>16.14619424576868</v>
       </c>
       <c r="P6" t="n">
-        <v>335.2366639491859</v>
+        <v>335.0850393314439</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23880,28 +23958,28 @@
         <v>0.0626</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.00870862290342065</v>
+        <v>0.00228234400891214</v>
       </c>
       <c r="J7" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K7" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L7" t="n">
-        <v>1.301486442406574e-05</v>
+        <v>8.981376545813546e-07</v>
       </c>
       <c r="M7" t="n">
-        <v>13.50459321025985</v>
+        <v>13.50464041730072</v>
       </c>
       <c r="N7" t="n">
-        <v>304.9205278970829</v>
+        <v>304.5066554313582</v>
       </c>
       <c r="O7" t="n">
-        <v>17.46197376865178</v>
+        <v>17.45011906639488</v>
       </c>
       <c r="P7" t="n">
-        <v>335.0499341154612</v>
+        <v>334.9348720574117</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23958,28 +24036,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03965525644229925</v>
+        <v>0.0496767536985312</v>
       </c>
       <c r="J8" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K8" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000315539525812869</v>
+        <v>0.0004973922448252566</v>
       </c>
       <c r="M8" t="n">
-        <v>12.22948940531189</v>
+        <v>12.22549144196378</v>
       </c>
       <c r="N8" t="n">
-        <v>258.4116519531252</v>
+        <v>258.0443925861286</v>
       </c>
       <c r="O8" t="n">
-        <v>16.0751874624567</v>
+        <v>16.06376022561743</v>
       </c>
       <c r="P8" t="n">
-        <v>332.6499635003064</v>
+        <v>332.5440556508202</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24036,28 +24114,28 @@
         <v>0.0641</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.04547312227936273</v>
+        <v>-0.03842448034361001</v>
       </c>
       <c r="J9" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K9" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003755006972337993</v>
+        <v>0.0002697830583738847</v>
       </c>
       <c r="M9" t="n">
-        <v>12.83593135645525</v>
+        <v>12.81372420834303</v>
       </c>
       <c r="N9" t="n">
-        <v>285.9342611427992</v>
+        <v>285.1041943936609</v>
       </c>
       <c r="O9" t="n">
-        <v>16.9095908035292</v>
+        <v>16.88502870573991</v>
       </c>
       <c r="P9" t="n">
-        <v>333.6120759183102</v>
+        <v>333.5376291701992</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24114,28 +24192,28 @@
         <v>0.0574</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1329921195355987</v>
+        <v>0.1386181437883193</v>
       </c>
       <c r="J10" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K10" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002836944022114984</v>
+        <v>0.003102722737372221</v>
       </c>
       <c r="M10" t="n">
-        <v>13.36494676135166</v>
+        <v>13.33511825364732</v>
       </c>
       <c r="N10" t="n">
-        <v>312.460324710712</v>
+        <v>311.3883746893415</v>
       </c>
       <c r="O10" t="n">
-        <v>17.67654730739892</v>
+        <v>17.64620000706502</v>
       </c>
       <c r="P10" t="n">
-        <v>332.2565792936341</v>
+        <v>332.1963422285062</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24192,28 +24270,28 @@
         <v>0.0466</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03915724457113331</v>
+        <v>0.04454690487997536</v>
       </c>
       <c r="J11" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K11" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002615502045371088</v>
+        <v>0.0003408625024934331</v>
       </c>
       <c r="M11" t="n">
-        <v>13.23549530984433</v>
+        <v>13.20442603704127</v>
       </c>
       <c r="N11" t="n">
-        <v>303.3233514090508</v>
+        <v>302.2863793225634</v>
       </c>
       <c r="O11" t="n">
-        <v>17.41618073542678</v>
+        <v>17.38638488365432</v>
       </c>
       <c r="P11" t="n">
-        <v>332.3527220712215</v>
+        <v>332.2963712501007</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24270,28 +24348,28 @@
         <v>0.0699</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2427830085817354</v>
+        <v>0.2480320727828426</v>
       </c>
       <c r="J12" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K12" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01032846969256251</v>
+        <v>0.01085326936072772</v>
       </c>
       <c r="M12" t="n">
-        <v>13.33183978782102</v>
+        <v>13.30014520963116</v>
       </c>
       <c r="N12" t="n">
-        <v>288.8834509057838</v>
+        <v>287.852404551132</v>
       </c>
       <c r="O12" t="n">
-        <v>16.9965717397887</v>
+        <v>16.96621361857536</v>
       </c>
       <c r="P12" t="n">
-        <v>325.6175430045179</v>
+        <v>325.5622574377145</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -24348,28 +24426,28 @@
         <v>0.1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1468004193635902</v>
+        <v>0.1545686221089437</v>
       </c>
       <c r="J13" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K13" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00344364230976546</v>
+        <v>0.003841725287470177</v>
       </c>
       <c r="M13" t="n">
-        <v>14.29554456046194</v>
+        <v>14.26841506148983</v>
       </c>
       <c r="N13" t="n">
-        <v>326.8432508467928</v>
+        <v>325.8227091308982</v>
       </c>
       <c r="O13" t="n">
-        <v>18.07880667651471</v>
+        <v>18.05055980103936</v>
       </c>
       <c r="P13" t="n">
-        <v>327.6562377731971</v>
+        <v>327.5750853251684</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24426,28 +24504,28 @@
         <v>0.0646</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1681287160979743</v>
+        <v>-0.1523682965010977</v>
       </c>
       <c r="J14" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K14" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0030008753067714</v>
+        <v>0.002479136449647257</v>
       </c>
       <c r="M14" t="n">
-        <v>15.61946142814912</v>
+        <v>15.60398241486558</v>
       </c>
       <c r="N14" t="n">
-        <v>496.5909304750577</v>
+        <v>495.9039229968805</v>
       </c>
       <c r="O14" t="n">
-        <v>22.284320282994</v>
+        <v>22.26890035446026</v>
       </c>
       <c r="P14" t="n">
-        <v>336.256600993175</v>
+        <v>336.0943036574159</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -24504,28 +24582,28 @@
         <v>0.0524</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.03939461095552785</v>
+        <v>0.01116363266425796</v>
       </c>
       <c r="J15" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K15" t="n">
         <v>212</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001291219000387756</v>
+        <v>1.042350103930278e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>15.34814482663156</v>
+        <v>15.21116513547998</v>
       </c>
       <c r="N15" t="n">
-        <v>622.9483280916263</v>
+        <v>619.9625495982134</v>
       </c>
       <c r="O15" t="n">
-        <v>24.9589328315861</v>
+        <v>24.8990471624561</v>
       </c>
       <c r="P15" t="n">
-        <v>334.8721948301325</v>
+        <v>334.3508044006389</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -24582,28 +24660,28 @@
         <v>0.0417</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.7952740853921245</v>
+        <v>-0.6950583764650715</v>
       </c>
       <c r="J16" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K16" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03067397625742796</v>
+        <v>0.02364781805762328</v>
       </c>
       <c r="M16" t="n">
-        <v>22.24050380708603</v>
+        <v>21.84332037266219</v>
       </c>
       <c r="N16" t="n">
-        <v>1025.003410974666</v>
+        <v>1018.776638206395</v>
       </c>
       <c r="O16" t="n">
-        <v>32.01567445759446</v>
+        <v>31.91828062735202</v>
       </c>
       <c r="P16" t="n">
-        <v>343.3754213715455</v>
+        <v>342.3361268285212</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24660,28 +24738,28 @@
         <v>0.0401</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.8304150184056497</v>
+        <v>-0.7919375633169204</v>
       </c>
       <c r="J17" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K17" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03323697904059841</v>
+        <v>0.03037379956721231</v>
       </c>
       <c r="M17" t="n">
-        <v>21.65558777618585</v>
+        <v>21.66329238710745</v>
       </c>
       <c r="N17" t="n">
-        <v>1041.531016008909</v>
+        <v>1044.582451861677</v>
       </c>
       <c r="O17" t="n">
-        <v>32.27275965902062</v>
+        <v>32.32000080231554</v>
       </c>
       <c r="P17" t="n">
-        <v>347.6630043490955</v>
+        <v>347.2672822936008</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24738,28 +24816,28 @@
         <v>0.0573</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5564290478310248</v>
+        <v>-0.5090373437658871</v>
       </c>
       <c r="J18" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K18" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0100995380432739</v>
+        <v>0.008480522600896379</v>
       </c>
       <c r="M18" t="n">
-        <v>28.91149314780069</v>
+        <v>28.89797999227758</v>
       </c>
       <c r="N18" t="n">
-        <v>1572.385124034948</v>
+        <v>1577.631494620104</v>
       </c>
       <c r="O18" t="n">
-        <v>39.65331164020161</v>
+        <v>39.71940954520981</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7402781941067</v>
+        <v>334.2598596515518</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -24816,28 +24894,28 @@
         <v>0.0388</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.248281146073797</v>
+        <v>-1.19238297039019</v>
       </c>
       <c r="J19" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K19" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L19" t="n">
-        <v>0.07234111946901811</v>
+        <v>0.06601155505924561</v>
       </c>
       <c r="M19" t="n">
-        <v>22.37769041528642</v>
+        <v>22.43643420466313</v>
       </c>
       <c r="N19" t="n">
-        <v>1035.95889051311</v>
+        <v>1047.819468580384</v>
       </c>
       <c r="O19" t="n">
-        <v>32.18631526772069</v>
+        <v>32.37003967529826</v>
       </c>
       <c r="P19" t="n">
-        <v>353.040591045579</v>
+        <v>352.4615620990175</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -24897,7 +24975,7 @@
         <v>-0.9951106035178298</v>
       </c>
       <c r="J20" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K20" t="n">
         <v>224</v>
@@ -24975,7 +25053,7 @@
         <v>-0.4543093174362923</v>
       </c>
       <c r="J21" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K21" t="n">
         <v>236</v>
@@ -25044,28 +25122,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-0.8674733358989273</v>
+        <v>-0.8057640054780222</v>
       </c>
       <c r="J22" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K22" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03679347508950848</v>
+        <v>0.03165544179258217</v>
       </c>
       <c r="M22" t="n">
-        <v>23.69144737752627</v>
+        <v>23.76506505489528</v>
       </c>
       <c r="N22" t="n">
-        <v>1013.16914829598</v>
+        <v>1027.060235822767</v>
       </c>
       <c r="O22" t="n">
-        <v>31.83031806777903</v>
+        <v>32.04778051320819</v>
       </c>
       <c r="P22" t="n">
-        <v>345.0067028496364</v>
+        <v>344.3771592863296</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -25122,28 +25200,28 @@
         <v>0.096</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.350686409208185</v>
+        <v>-1.291803460614069</v>
       </c>
       <c r="J23" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K23" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L23" t="n">
-        <v>0.07976415522127789</v>
+        <v>0.07289671026985989</v>
       </c>
       <c r="M23" t="n">
-        <v>26.59604412207293</v>
+        <v>26.69718024474902</v>
       </c>
       <c r="N23" t="n">
-        <v>1086.209040535383</v>
+        <v>1100.284443086745</v>
       </c>
       <c r="O23" t="n">
-        <v>32.95768560647702</v>
+        <v>33.17053576725502</v>
       </c>
       <c r="P23" t="n">
-        <v>355.8970055701935</v>
+        <v>355.2859514001823</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -25181,7 +25259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X295"/>
+  <dimension ref="A1:X296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54564,16 +54642,8 @@
           <t>-39.860705318918754,174.8082680237873</t>
         </is>
       </c>
-      <c r="O293" t="inlineStr">
-        <is>
-          <t>-39.860383907220225,174.8074621437961</t>
-        </is>
-      </c>
-      <c r="P293" t="inlineStr">
-        <is>
-          <t>-39.86012400954944,174.806628718079</t>
-        </is>
-      </c>
+      <c r="O293" t="inlineStr"/>
+      <c r="P293" t="inlineStr"/>
       <c r="Q293" t="inlineStr"/>
       <c r="R293" t="inlineStr"/>
       <c r="S293" t="inlineStr"/>
@@ -54663,11 +54733,7 @@
         </is>
       </c>
       <c r="O294" t="inlineStr"/>
-      <c r="P294" t="inlineStr">
-        <is>
-          <t>-39.85991053669418,174.80672431322506</t>
-        </is>
-      </c>
+      <c r="P294" t="inlineStr"/>
       <c r="Q294" t="inlineStr"/>
       <c r="R294" t="inlineStr"/>
       <c r="S294" t="inlineStr"/>
@@ -54775,6 +54841,120 @@
         </is>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:57+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>-39.86397103982055,174.81820335119008</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>-39.86373106459334,174.81736100374366</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>-39.86350294710257,174.81651334702372</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>-39.86324337286666,174.8156797741159</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>-39.86294720753621,174.81486258456846</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>-39.862664230001364,174.81403949077716</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>-39.86241003242669,174.8132035109978</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>-39.86213365723353,174.8123774614754</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>-39.861909740411726,174.81152792297726</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>-39.86165511407991,174.8106921350021</t>
+        </is>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>-39.86140508580143,174.8098542880545</t>
+        </is>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>-39.86119456024431,174.80899875198568</t>
+        </is>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>-39.86104255437572,174.80811701002713</t>
+        </is>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>-39.860859021774054,174.8072493843606</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>-39.860615313095174,174.80640870545216</t>
+        </is>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>-39.860487734178044,174.80551602046435</t>
+        </is>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>-39.86030200376956,174.8046493756251</t>
+        </is>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>-39.86012845221415,174.80377727545343</t>
+        </is>
+      </c>
+      <c r="T296" t="inlineStr"/>
+      <c r="U296" t="inlineStr"/>
+      <c r="V296" t="inlineStr">
+        <is>
+          <t>-39.85947084615486,174.80122230310914</t>
+        </is>
+      </c>
+      <c r="W296" t="inlineStr">
+        <is>
+          <t>-39.85923886533949,174.80037636780665</t>
+        </is>
+      </c>
+      <c r="X296" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0299/nzd0299.xlsx
+++ b/data/nzd0299/nzd0299.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X296"/>
+  <dimension ref="A1:X298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20342,8 +20342,12 @@
       <c r="S296" t="n">
         <v>380.3171428571428</v>
       </c>
-      <c r="T296" t="inlineStr"/>
-      <c r="U296" t="inlineStr"/>
+      <c r="T296" t="n">
+        <v>377.8866666666667</v>
+      </c>
+      <c r="U296" t="n">
+        <v>386.89</v>
+      </c>
       <c r="V296" t="n">
         <v>385.314761904762</v>
       </c>
@@ -20351,6 +20355,162 @@
         <v>385.48</v>
       </c>
       <c r="X296" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:56+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>355.8244444444445</v>
+      </c>
+      <c r="C297" t="n">
+        <v>354.57</v>
+      </c>
+      <c r="D297" t="n">
+        <v>345.5928571428572</v>
+      </c>
+      <c r="E297" t="n">
+        <v>341.47</v>
+      </c>
+      <c r="F297" t="n">
+        <v>341.0444444444445</v>
+      </c>
+      <c r="G297" t="n">
+        <v>335.62</v>
+      </c>
+      <c r="H297" t="n">
+        <v>330.61</v>
+      </c>
+      <c r="I297" t="n">
+        <v>331.88</v>
+      </c>
+      <c r="J297" t="n">
+        <v>328.1944444444445</v>
+      </c>
+      <c r="K297" t="n">
+        <v>328.41</v>
+      </c>
+      <c r="L297" t="n">
+        <v>330.25</v>
+      </c>
+      <c r="M297" t="n">
+        <v>336.8514285714285</v>
+      </c>
+      <c r="N297" t="n">
+        <v>348.0444444444445</v>
+      </c>
+      <c r="O297" t="n">
+        <v>348.16</v>
+      </c>
+      <c r="P297" t="n">
+        <v>358.7528571428572</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>364.8266666666667</v>
+      </c>
+      <c r="R297" t="n">
+        <v>360.44</v>
+      </c>
+      <c r="S297" t="n">
+        <v>356.0328571428572</v>
+      </c>
+      <c r="T297" t="n">
+        <v>355.2233333333333</v>
+      </c>
+      <c r="U297" t="n">
+        <v>352.76</v>
+      </c>
+      <c r="V297" t="n">
+        <v>358.1152380952381</v>
+      </c>
+      <c r="W297" t="n">
+        <v>361.7623076923077</v>
+      </c>
+      <c r="X297" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>348.1144444444445</v>
+      </c>
+      <c r="C298" t="n">
+        <v>343.45</v>
+      </c>
+      <c r="D298" t="n">
+        <v>336.48</v>
+      </c>
+      <c r="E298" t="n">
+        <v>335.3200000000001</v>
+      </c>
+      <c r="F298" t="n">
+        <v>330.3444444444444</v>
+      </c>
+      <c r="G298" t="n">
+        <v>324.22</v>
+      </c>
+      <c r="H298" t="n">
+        <v>321.6072727272727</v>
+      </c>
+      <c r="I298" t="n">
+        <v>325.4372727272727</v>
+      </c>
+      <c r="J298" t="n">
+        <v>326.2044444444444</v>
+      </c>
+      <c r="K298" t="n">
+        <v>328.28</v>
+      </c>
+      <c r="L298" t="n">
+        <v>329.4672727272728</v>
+      </c>
+      <c r="M298" t="n">
+        <v>330.49</v>
+      </c>
+      <c r="N298" t="n">
+        <v>338.6744444444445</v>
+      </c>
+      <c r="O298" t="n">
+        <v>341.31</v>
+      </c>
+      <c r="P298" t="n">
+        <v>341.82</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>338.1466666666667</v>
+      </c>
+      <c r="R298" t="n">
+        <v>342.05</v>
+      </c>
+      <c r="S298" t="n">
+        <v>340.98</v>
+      </c>
+      <c r="T298" t="n">
+        <v>342.9433333333333</v>
+      </c>
+      <c r="U298" t="n">
+        <v>338.67</v>
+      </c>
+      <c r="V298" t="n">
+        <v>353.8766666666667</v>
+      </c>
+      <c r="W298" t="n">
+        <v>361.6330769230769</v>
+      </c>
+      <c r="X298" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -20367,7 +20527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B302"/>
+  <dimension ref="A1:B304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23395,6 +23555,26 @@
       </c>
       <c r="B302" t="n">
         <v>0.52</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -23568,28 +23748,28 @@
         <v>0.0524</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2122812254504449</v>
+        <v>-0.2042368933560039</v>
       </c>
       <c r="J2" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K2" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005882172952927478</v>
+        <v>0.005540605762617057</v>
       </c>
       <c r="M2" t="n">
-        <v>12.551260483983</v>
+        <v>12.46529839342958</v>
       </c>
       <c r="N2" t="n">
-        <v>405.3494119571405</v>
+        <v>401.7872368685951</v>
       </c>
       <c r="O2" t="n">
-        <v>20.13329113575673</v>
+        <v>20.04463112328573</v>
       </c>
       <c r="P2" t="n">
-        <v>352.8691178701063</v>
+        <v>352.7862931817989</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23646,28 +23826,28 @@
         <v>0.0573</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1671273813138322</v>
+        <v>-0.1577715596976585</v>
       </c>
       <c r="J3" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K3" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004578254867033227</v>
+        <v>0.004150932990519385</v>
       </c>
       <c r="M3" t="n">
-        <v>11.78131384013139</v>
+        <v>11.71349525336701</v>
       </c>
       <c r="N3" t="n">
-        <v>334.2797522140279</v>
+        <v>331.396696950853</v>
       </c>
       <c r="O3" t="n">
-        <v>18.28331896057244</v>
+        <v>18.20430435229133</v>
       </c>
       <c r="P3" t="n">
-        <v>348.2005695144778</v>
+        <v>348.1058524672239</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23724,28 +23904,28 @@
         <v>0.0386</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02355844515457325</v>
+        <v>0.01889739976618547</v>
       </c>
       <c r="J4" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K4" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L4" t="n">
-        <v>8.209353823862564e-05</v>
+        <v>5.378269336497876e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>13.60626633019195</v>
+        <v>13.51326820105911</v>
       </c>
       <c r="N4" t="n">
-        <v>384.5442868941112</v>
+        <v>380.8002439742301</v>
       </c>
       <c r="O4" t="n">
-        <v>19.60980078670131</v>
+        <v>19.51410371946993</v>
       </c>
       <c r="P4" t="n">
-        <v>342.9634961166786</v>
+        <v>343.0097508176951</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23802,28 +23982,28 @@
         <v>0.0604</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2095240603584058</v>
+        <v>-0.2053304019365326</v>
       </c>
       <c r="J5" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K5" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006936447433399273</v>
+        <v>0.006768171659699673</v>
       </c>
       <c r="M5" t="n">
-        <v>12.54893940178209</v>
+        <v>12.45796029533494</v>
       </c>
       <c r="N5" t="n">
-        <v>344.3223174680681</v>
+        <v>341.2669929029482</v>
       </c>
       <c r="O5" t="n">
-        <v>18.55592405319843</v>
+        <v>18.47341313626013</v>
       </c>
       <c r="P5" t="n">
-        <v>341.1922202694089</v>
+        <v>341.1493253089182</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23880,28 +24060,28 @@
         <v>0.0506</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0324341641311213</v>
+        <v>0.03207547351778726</v>
       </c>
       <c r="J6" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K6" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002155094492994891</v>
+        <v>0.0002137510696845757</v>
       </c>
       <c r="M6" t="n">
-        <v>12.2605168400021</v>
+        <v>12.20425232661638</v>
       </c>
       <c r="N6" t="n">
-        <v>260.6995886220936</v>
+        <v>258.8055673983128</v>
       </c>
       <c r="O6" t="n">
-        <v>16.14619424576868</v>
+        <v>16.08743507829364</v>
       </c>
       <c r="P6" t="n">
-        <v>335.0850393314439</v>
+        <v>335.0888897430794</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23958,28 +24138,28 @@
         <v>0.0626</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00228234400891214</v>
+        <v>-0.00536185931146904</v>
       </c>
       <c r="J7" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K7" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L7" t="n">
-        <v>8.981376545813546e-07</v>
+        <v>5.022714016478247e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>13.50464041730072</v>
+        <v>13.44317225604048</v>
       </c>
       <c r="N7" t="n">
-        <v>304.5066554313582</v>
+        <v>302.4831777547167</v>
       </c>
       <c r="O7" t="n">
-        <v>17.45011906639488</v>
+        <v>17.39204351865291</v>
       </c>
       <c r="P7" t="n">
-        <v>334.9348720574117</v>
+        <v>335.0152883195752</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24036,28 +24216,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0496767536985312</v>
+        <v>0.03806838812095487</v>
       </c>
       <c r="J8" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K8" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004973922448252566</v>
+        <v>0.0002957021663210213</v>
       </c>
       <c r="M8" t="n">
-        <v>12.22549144196378</v>
+        <v>12.19566355934672</v>
       </c>
       <c r="N8" t="n">
-        <v>258.0443925861286</v>
+        <v>256.5655009464301</v>
       </c>
       <c r="O8" t="n">
-        <v>16.06376022561743</v>
+        <v>16.01766215608352</v>
       </c>
       <c r="P8" t="n">
-        <v>332.5440556508202</v>
+        <v>332.6672188532831</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24114,28 +24294,28 @@
         <v>0.0641</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.03842448034361001</v>
+        <v>-0.04425896704272551</v>
       </c>
       <c r="J9" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K9" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002697830583738847</v>
+        <v>0.0003628632421306399</v>
       </c>
       <c r="M9" t="n">
-        <v>12.81372420834303</v>
+        <v>12.74605032206058</v>
       </c>
       <c r="N9" t="n">
-        <v>285.1041943936609</v>
+        <v>282.9737453854481</v>
       </c>
       <c r="O9" t="n">
-        <v>16.88502870573991</v>
+        <v>16.82182348574161</v>
       </c>
       <c r="P9" t="n">
-        <v>333.5376291701992</v>
+        <v>333.5995231642257</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24192,28 +24372,28 @@
         <v>0.0574</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1386181437883193</v>
+        <v>0.1254400507440937</v>
       </c>
       <c r="J10" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K10" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003102722737372221</v>
+        <v>0.002575834639426122</v>
       </c>
       <c r="M10" t="n">
-        <v>13.33511825364732</v>
+        <v>13.30501223279637</v>
       </c>
       <c r="N10" t="n">
-        <v>311.3883746893415</v>
+        <v>309.4456565953756</v>
       </c>
       <c r="O10" t="n">
-        <v>17.64620000706502</v>
+        <v>17.59106752290422</v>
       </c>
       <c r="P10" t="n">
-        <v>332.1963422285062</v>
+        <v>332.337854801977</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24270,28 +24450,28 @@
         <v>0.0466</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04454690487997536</v>
+        <v>0.03682484133815327</v>
       </c>
       <c r="J11" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K11" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003408625024934331</v>
+        <v>0.0002363478978707478</v>
       </c>
       <c r="M11" t="n">
-        <v>13.20442603704127</v>
+        <v>13.14611203795433</v>
       </c>
       <c r="N11" t="n">
-        <v>302.2863793225634</v>
+        <v>300.0530332001515</v>
       </c>
       <c r="O11" t="n">
-        <v>17.38638488365432</v>
+        <v>17.3220389446552</v>
       </c>
       <c r="P11" t="n">
-        <v>332.2963712501007</v>
+        <v>332.3773346943503</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24348,28 +24528,28 @@
         <v>0.0699</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2480320727828426</v>
+        <v>0.244787627005447</v>
       </c>
       <c r="J12" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K12" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01085326936072772</v>
+        <v>0.01073785976291963</v>
       </c>
       <c r="M12" t="n">
-        <v>13.30014520963116</v>
+        <v>13.20853694651137</v>
       </c>
       <c r="N12" t="n">
-        <v>287.852404551132</v>
+        <v>285.4993764888774</v>
       </c>
       <c r="O12" t="n">
-        <v>16.96621361857536</v>
+        <v>16.89672679807771</v>
       </c>
       <c r="P12" t="n">
-        <v>325.5622574377145</v>
+        <v>325.5965345328842</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -24426,28 +24606,28 @@
         <v>0.1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1545686221089437</v>
+        <v>0.1579198296572033</v>
       </c>
       <c r="J13" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K13" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003841725287470177</v>
+        <v>0.004070538134418711</v>
       </c>
       <c r="M13" t="n">
-        <v>14.26841506148983</v>
+        <v>14.17009341459405</v>
       </c>
       <c r="N13" t="n">
-        <v>325.8227091308982</v>
+        <v>323.1396719638342</v>
       </c>
       <c r="O13" t="n">
-        <v>18.05055980103936</v>
+        <v>17.97608611360755</v>
       </c>
       <c r="P13" t="n">
-        <v>327.5750853251684</v>
+        <v>327.5400677663185</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24504,28 +24684,28 @@
         <v>0.0646</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1523682965010977</v>
+        <v>-0.1339097591422323</v>
       </c>
       <c r="J14" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K14" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002479136449647257</v>
+        <v>0.001943060603070479</v>
       </c>
       <c r="M14" t="n">
-        <v>15.60398241486558</v>
+        <v>15.52901499373733</v>
       </c>
       <c r="N14" t="n">
-        <v>495.9039229968805</v>
+        <v>492.7578849526116</v>
       </c>
       <c r="O14" t="n">
-        <v>22.26890035446026</v>
+        <v>22.19815048495283</v>
       </c>
       <c r="P14" t="n">
-        <v>336.0943036574159</v>
+        <v>335.9038210293168</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -24582,28 +24762,28 @@
         <v>0.0524</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01116363266425796</v>
+        <v>0.02922478365801539</v>
       </c>
       <c r="J15" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K15" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L15" t="n">
-        <v>1.042350103930278e-05</v>
+        <v>7.262497475746255e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>15.21116513547998</v>
+        <v>15.13562661187585</v>
       </c>
       <c r="N15" t="n">
-        <v>619.9625495982134</v>
+        <v>615.2051756415824</v>
       </c>
       <c r="O15" t="n">
-        <v>24.8990471624561</v>
+        <v>24.80332993050696</v>
       </c>
       <c r="P15" t="n">
-        <v>334.3508044006389</v>
+        <v>334.1631731589139</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -24660,28 +24840,28 @@
         <v>0.0417</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6950583764650715</v>
+        <v>-0.6480870717505813</v>
       </c>
       <c r="J16" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K16" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02364781805762328</v>
+        <v>0.02086906693046897</v>
       </c>
       <c r="M16" t="n">
-        <v>21.84332037266219</v>
+        <v>21.74942507401852</v>
       </c>
       <c r="N16" t="n">
-        <v>1018.776638206395</v>
+        <v>1015.956233718478</v>
       </c>
       <c r="O16" t="n">
-        <v>31.91828062735202</v>
+        <v>31.87406835843957</v>
       </c>
       <c r="P16" t="n">
-        <v>342.3361268285212</v>
+        <v>341.8455482148856</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24738,28 +24918,28 @@
         <v>0.0401</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.7919375633169204</v>
+        <v>-0.7473322472888962</v>
       </c>
       <c r="J17" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K17" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03037379956721231</v>
+        <v>0.02745329196811075</v>
       </c>
       <c r="M17" t="n">
-        <v>21.66329238710745</v>
+        <v>21.59709828912017</v>
       </c>
       <c r="N17" t="n">
-        <v>1044.582451861677</v>
+        <v>1041.902618733836</v>
       </c>
       <c r="O17" t="n">
-        <v>32.32000080231554</v>
+        <v>32.278516365128</v>
       </c>
       <c r="P17" t="n">
-        <v>347.2672822936008</v>
+        <v>346.807721180436</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24816,28 +24996,28 @@
         <v>0.0573</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5090373437658871</v>
+        <v>-0.4563456773412979</v>
       </c>
       <c r="J18" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K18" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008480522600896379</v>
+        <v>0.006917377632575161</v>
       </c>
       <c r="M18" t="n">
-        <v>28.89797999227758</v>
+        <v>28.77452294739363</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.631494620104</v>
+        <v>1572.182432742284</v>
       </c>
       <c r="O18" t="n">
-        <v>39.71940954520981</v>
+        <v>39.65075576508326</v>
       </c>
       <c r="P18" t="n">
-        <v>334.2598596515518</v>
+        <v>333.7246074835097</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -24894,28 +25074,28 @@
         <v>0.0388</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.19238297039019</v>
+        <v>-1.143325042030916</v>
       </c>
       <c r="J19" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K19" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06601155505924561</v>
+        <v>0.06169816788595772</v>
       </c>
       <c r="M19" t="n">
-        <v>22.43643420466313</v>
+        <v>22.36812331959229</v>
       </c>
       <c r="N19" t="n">
-        <v>1047.819468580384</v>
+        <v>1044.874351508704</v>
       </c>
       <c r="O19" t="n">
-        <v>32.37003967529826</v>
+        <v>32.32451626101624</v>
       </c>
       <c r="P19" t="n">
-        <v>352.4615620990175</v>
+        <v>351.9522450358448</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -24972,28 +25152,28 @@
         <v>0.0785</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.9951106035178298</v>
+        <v>-0.8943177678227284</v>
       </c>
       <c r="J20" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K20" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04096925095917292</v>
+        <v>0.03355810799361036</v>
       </c>
       <c r="M20" t="n">
-        <v>23.02880495912141</v>
+        <v>23.05443226443673</v>
       </c>
       <c r="N20" t="n">
-        <v>1196.19085002423</v>
+        <v>1203.528580786241</v>
       </c>
       <c r="O20" t="n">
-        <v>34.58599210698213</v>
+        <v>34.69190944278278</v>
       </c>
       <c r="P20" t="n">
-        <v>344.1250999867298</v>
+        <v>343.0762617707346</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -25050,28 +25230,28 @@
         <v>0.0535</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.4543093174362923</v>
+        <v>-0.3896893345919605</v>
       </c>
       <c r="J21" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K21" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01989897142821695</v>
+        <v>0.01470071724412259</v>
       </c>
       <c r="M21" t="n">
-        <v>16.68104417322131</v>
+        <v>16.77309562607226</v>
       </c>
       <c r="N21" t="n">
-        <v>526.8570789097639</v>
+        <v>534.0703817523843</v>
       </c>
       <c r="O21" t="n">
-        <v>22.95336748518099</v>
+        <v>23.10996282455652</v>
       </c>
       <c r="P21" t="n">
-        <v>344.2694173193036</v>
+        <v>343.6031263764016</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -25122,28 +25302,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-0.8057640054780222</v>
+        <v>-0.7436075347961308</v>
       </c>
       <c r="J22" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K22" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03165544179258217</v>
+        <v>0.02737142372781942</v>
       </c>
       <c r="M22" t="n">
-        <v>23.76506505489528</v>
+        <v>23.73856574773419</v>
       </c>
       <c r="N22" t="n">
-        <v>1027.060235822767</v>
+        <v>1026.945386605203</v>
       </c>
       <c r="O22" t="n">
-        <v>32.04778051320819</v>
+        <v>32.04598861956366</v>
       </c>
       <c r="P22" t="n">
-        <v>344.3771592863296</v>
+        <v>343.7415047448587</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -25200,28 +25380,28 @@
         <v>0.096</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.291803460614069</v>
+        <v>-1.220820345129775</v>
       </c>
       <c r="J23" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K23" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L23" t="n">
-        <v>0.07289671026985989</v>
+        <v>0.06594195328615149</v>
       </c>
       <c r="M23" t="n">
-        <v>26.69718024474902</v>
+        <v>26.73358420014155</v>
       </c>
       <c r="N23" t="n">
-        <v>1100.284443086745</v>
+        <v>1104.224328938698</v>
       </c>
       <c r="O23" t="n">
-        <v>33.17053576725502</v>
+        <v>33.2298710340365</v>
       </c>
       <c r="P23" t="n">
-        <v>355.2859514001823</v>
+        <v>354.5473421789446</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -25259,7 +25439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X296"/>
+  <dimension ref="A1:X298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54937,8 +55117,16 @@
           <t>-39.86012845221415,174.80377727545343</t>
         </is>
       </c>
-      <c r="T296" t="inlineStr"/>
-      <c r="U296" t="inlineStr"/>
+      <c r="T296" t="inlineStr">
+        <is>
+          <t>-39.859874372627885,174.80294123852727</t>
+        </is>
+      </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>-39.85971764544724,174.8020616014439</t>
+        </is>
+      </c>
       <c r="V296" t="inlineStr">
         <is>
           <t>-39.85947084615486,174.80122230310914</t>
@@ -54950,6 +55138,250 @@
         </is>
       </c>
       <c r="X296" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:56+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>-39.86388732985967,174.8182408290074</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>-39.86364327715194,174.81740030775566</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>-39.86333346668171,174.81658922767</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>-39.86306498875461,174.81575964246662</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>-39.86282799172607,174.81491596221542</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>-39.862548429756025,174.81409133995643</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>-39.862272396035976,174.8132651382389</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>-39.86204983395488,174.8124149943077</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>-39.86178507608247,174.8115837437969</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>-39.86155353417455,174.81073762010004</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>-39.861335823034615,174.80988530282775</t>
+        </is>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>-39.8611586528396,174.8090148310491</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>-39.861020577217865,174.80812685142624</t>
+        </is>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>-39.86078818034383,174.8072811078106</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>-39.860644992482946,174.80639541450316</t>
+        </is>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>-39.8604633257687,174.80552695118996</t>
+        </is>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>-39.86019259186183,174.80469837399355</t>
+        </is>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>-39.859921682954,174.8038698753697</t>
+        </is>
+      </c>
+      <c r="T297" t="inlineStr">
+        <is>
+          <t>-39.859681405372115,174.80302765877602</t>
+        </is>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>-39.85942704566283,174.8021917486905</t>
+        </is>
+      </c>
+      <c r="V297" t="inlineStr">
+        <is>
+          <t>-39.85923925633037,174.80132602414008</t>
+        </is>
+      </c>
+      <c r="W297" t="inlineStr">
+        <is>
+          <t>-39.85903692188707,174.8004668128526</t>
+        </is>
+      </c>
+      <c r="X297" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>-39.8638216807313,174.81827022073787</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>-39.863548592720235,174.81744269955956</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>-39.86325587278101,174.81662396828366</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>-39.86301262300321,174.8157830882314</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>-39.8627368840009,174.814956754631</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>-39.86245136188679,174.81413480163914</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>-39.86219574042543,174.81329946098452</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>-39.86199497610633,174.8124395574868</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>-39.86176813187369,174.81159133087212</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>-39.86155242726852,174.8107381157458</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>-39.86132915838937,174.8098882871473</t>
+        </is>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>-39.86110448763476,174.8090390857846</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>-39.860940795303435,174.80816257781464</t>
+        </is>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>-39.860729855362166,174.8073072262289</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>-39.86050081632907,174.80645997899748</t>
+        </is>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>-39.86023615722471,174.80562868284096</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>-39.860036009339474,174.80476849668958</t>
+        </is>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>-39.859793514927695,174.80392727408417</t>
+        </is>
+      </c>
+      <c r="T298" t="inlineStr">
+        <is>
+          <t>-39.8595768471224,174.80307448490802</t>
+        </is>
+      </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>-39.85930707635987,174.80224547749725</t>
+        </is>
+      </c>
+      <c r="V298" t="inlineStr">
+        <is>
+          <t>-39.85920316708737,174.80134218719337</t>
+        </is>
+      </c>
+      <c r="W298" t="inlineStr">
+        <is>
+          <t>-39.85903582155608,174.80046730565982</t>
+        </is>
+      </c>
+      <c r="X298" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0299/nzd0299.xlsx
+++ b/data/nzd0299/nzd0299.xlsx
@@ -23739,13 +23739,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0425</v>
+        <v>0.0335</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0524</v>
+        <v>0.0494</v>
       </c>
       <c r="I2" t="n">
         <v>-0.2041943425533891</v>
@@ -23817,13 +23817,13 @@
         <v>0.9523809523803755</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0452</v>
+        <v>0.0348</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0573</v>
+        <v>0.0518</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1577715596976582</v>
@@ -23895,13 +23895,13 @@
         <v>0.9047619047609009</v>
       </c>
       <c r="F4" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.031</v>
+        <v>0.0387</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0386</v>
+        <v>0.0633</v>
       </c>
       <c r="I4" t="n">
         <v>0.01887322094519693</v>
@@ -23976,10 +23976,10 @@
         <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0423</v>
+        <v>0.0403</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0604</v>
+        <v>0.0746</v>
       </c>
       <c r="I5" t="n">
         <v>-0.2053304019365327</v>
@@ -24051,13 +24051,13 @@
         <v>0.809523809523471</v>
       </c>
       <c r="F6" t="n">
-        <v>0.045</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0395</v>
+        <v>0.0543</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0506</v>
+        <v>0.0921</v>
       </c>
       <c r="I6" t="n">
         <v>0.03210455852131072</v>
@@ -24129,13 +24129,13 @@
         <v>0.7619047619039966</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0442</v>
+        <v>0.0484</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0626</v>
+        <v>0.0761</v>
       </c>
       <c r="I7" t="n">
         <v>-0.005361859311468539</v>
@@ -24210,10 +24210,10 @@
         <v>0.055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.046</v>
+        <v>0.0454</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.0771</v>
       </c>
       <c r="I8" t="n">
         <v>0.03808515289379074</v>
@@ -24285,13 +24285,13 @@
         <v>0.6666666666665667</v>
       </c>
       <c r="F9" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.047</v>
+        <v>0.0554</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0641</v>
+        <v>0.0925</v>
       </c>
       <c r="I9" t="n">
         <v>-0.0442514334725914</v>
@@ -24363,13 +24363,13 @@
         <v>0.6190476190487614</v>
       </c>
       <c r="F10" t="n">
-        <v>0.045</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0403</v>
+        <v>0.0535</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0574</v>
+        <v>0.0929</v>
       </c>
       <c r="I10" t="n">
         <v>0.1254554877155635</v>
@@ -24441,13 +24441,13 @@
         <v>0.5714285714292869</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0372</v>
+        <v>0.0545</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0466</v>
+        <v>0.0961</v>
       </c>
       <c r="I11" t="n">
         <v>0.03682484133815327</v>
@@ -24519,13 +24519,13 @@
         <v>0.5238095238114817</v>
       </c>
       <c r="F12" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0441</v>
+        <v>0.0506</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0699</v>
+        <v>0.08790000000000001</v>
       </c>
       <c r="I12" t="n">
         <v>0.2447869688426212</v>
@@ -24597,13 +24597,13 @@
         <v>0.4761904761920072</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0566</v>
+        <v>0.0471</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1</v>
+        <v>0.0842</v>
       </c>
       <c r="I13" t="n">
         <v>0.1579180106162948</v>
@@ -24675,13 +24675,13 @@
         <v>0.4285714285725326</v>
       </c>
       <c r="F14" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0344</v>
+        <v>0.0384</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0646</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="I14" t="n">
         <v>-0.133907819529236</v>
@@ -24753,13 +24753,13 @@
         <v>0.3809523809530581</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0344</v>
+        <v>0.0299</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0524</v>
+        <v>0.0412</v>
       </c>
       <c r="I15" t="n">
         <v>0.02922478365801539</v>
@@ -24831,13 +24831,13 @@
         <v>0.3333333333334335</v>
       </c>
       <c r="F16" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.029</v>
+        <v>0.0386</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0417</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I16" t="n">
         <v>-0.6480832842645481</v>
@@ -24909,13 +24909,13 @@
         <v>0.2857142857138089</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0247</v>
+        <v>0.0391</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0401</v>
+        <v>0.0738</v>
       </c>
       <c r="I17" t="n">
         <v>-0.7473405348830844</v>
@@ -24987,13 +24987,13 @@
         <v>0.2380952380941842</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0292</v>
+        <v>0.0413</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0573</v>
+        <v>0.0767</v>
       </c>
       <c r="I18" t="n">
         <v>-0.4563456773412979</v>
@@ -25065,13 +25065,13 @@
         <v>0.1904761904763789</v>
       </c>
       <c r="F19" t="n">
-        <v>0.035</v>
+        <v>0.08</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0328</v>
+        <v>0.0527</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0388</v>
+        <v>0.1706</v>
       </c>
       <c r="I19" t="n">
         <v>-1.143312208761355</v>
@@ -25143,13 +25143,13 @@
         <v>0.1428571428567543</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0482</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0785</v>
+        <v>0.2</v>
       </c>
       <c r="I20" t="n">
         <v>-0.8943123277634433</v>
@@ -25221,13 +25221,13 @@
         <v>0.0952380952372798</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04</v>
+        <v>0.105</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0348</v>
+        <v>0.0732</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0535</v>
+        <v>0.1793</v>
       </c>
       <c r="I21" t="n">
         <v>-0.3896893345919605</v>
@@ -25298,9 +25298,15 @@
       <c r="E22" t="n">
         <v>0.04761904761947453</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0541</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1333</v>
+      </c>
       <c r="I22" t="n">
         <v>-0.7435811268752459</v>
       </c>
@@ -25371,13 +25377,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0504</v>
+        <v>0.0473</v>
       </c>
       <c r="H23" t="n">
-        <v>0.096</v>
+        <v>0.0785</v>
       </c>
       <c r="I23" t="n">
         <v>-1.220861999783908</v>
